--- a/test_data/zeros-1409images/17_bins_noarea_zeros/test_data.xlsx
+++ b/test_data/zeros-1409images/17_bins_noarea_zeros/test_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D466"/>
+  <dimension ref="A1:D487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>22.06842063536691</v>
+        <v>53.48081522308591</v>
       </c>
       <c r="D2" t="n">
-        <v>2.068420635366905</v>
+        <v>13.48081522308591</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>66.30002565873602</v>
+        <v>13.96085690800734</v>
       </c>
       <c r="D3" t="n">
-        <v>26.30002565873602</v>
+        <v>3.960856908007344</v>
       </c>
     </row>
     <row r="4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C4" t="n">
-        <v>72.1983708931358</v>
+        <v>31.83430662694132</v>
       </c>
       <c r="D4" t="n">
-        <v>2.801629106864198</v>
+        <v>30.16569337305868</v>
       </c>
     </row>
     <row r="5">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>14.94380637704601</v>
+        <v>1.613435024498979</v>
       </c>
       <c r="D5" t="n">
-        <v>4.943806377046009</v>
+        <v>1.613435024498979</v>
       </c>
     </row>
     <row r="6">
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>24.08718013278692</v>
+        <v>21.9415142207619</v>
       </c>
       <c r="D6" t="n">
-        <v>15.91281986721308</v>
+        <v>11.9415142207619</v>
       </c>
     </row>
     <row r="7">
@@ -461,10 +461,10 @@
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>26.61791337532459</v>
+        <v>20.3037767869089</v>
       </c>
       <c r="D7" t="n">
-        <v>6.617913375324594</v>
+        <v>0.3037767869088981</v>
       </c>
     </row>
     <row r="8">
@@ -472,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>13.90041373940002</v>
+        <v>20.30677399739854</v>
       </c>
       <c r="D8" t="n">
-        <v>3.900413739400015</v>
+        <v>0.3067739973985368</v>
       </c>
     </row>
     <row r="9">
@@ -486,13 +486,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>2.093584320344124</v>
+        <v>5.816620221071911</v>
       </c>
       <c r="D9" t="n">
-        <v>2.093584320344124</v>
+        <v>4.183379778928089</v>
       </c>
     </row>
     <row r="10">
@@ -500,13 +500,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>40.63822213686254</v>
+        <v>21.09196801022971</v>
       </c>
       <c r="D10" t="n">
-        <v>9.361777863137462</v>
+        <v>11.09196801022971</v>
       </c>
     </row>
     <row r="11">
@@ -517,10 +517,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.53218811180113</v>
+        <v>2.933094876677967</v>
       </c>
       <c r="D11" t="n">
-        <v>2.53218811180113</v>
+        <v>2.933094876677967</v>
       </c>
     </row>
     <row r="12">
@@ -528,13 +528,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>10.20565798305831</v>
+        <v>50.73807683881019</v>
       </c>
       <c r="D12" t="n">
-        <v>0.205657983058309</v>
+        <v>20.73807683881019</v>
       </c>
     </row>
     <row r="13">
@@ -542,13 +542,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C13" t="n">
-        <v>15.53461778184152</v>
+        <v>49.94402029775494</v>
       </c>
       <c r="D13" t="n">
-        <v>5.534617781841519</v>
+        <v>9.944020297754939</v>
       </c>
     </row>
     <row r="14">
@@ -556,13 +556,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>42.78882378940797</v>
+        <v>42.22451187655739</v>
       </c>
       <c r="D14" t="n">
-        <v>7.211176210592029</v>
+        <v>12.22451187655739</v>
       </c>
     </row>
     <row r="15">
@@ -570,13 +570,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>54.66780479887492</v>
+        <v>23.8323423464585</v>
       </c>
       <c r="D15" t="n">
-        <v>4.667804798874919</v>
+        <v>3.8323423464585</v>
       </c>
     </row>
     <row r="16">
@@ -584,13 +584,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C16" t="n">
-        <v>35.00808064989927</v>
+        <v>56.920902373173</v>
       </c>
       <c r="D16" t="n">
-        <v>15.00808064989927</v>
+        <v>18.079097626827</v>
       </c>
     </row>
     <row r="17">
@@ -598,13 +598,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C17" t="n">
-        <v>49.21873880563957</v>
+        <v>45.22416624226312</v>
       </c>
       <c r="D17" t="n">
-        <v>9.218738805639568</v>
+        <v>4.775833757736883</v>
       </c>
     </row>
     <row r="18">
@@ -615,10 +615,10 @@
         <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>37.6483665511935</v>
+        <v>52.10330988383468</v>
       </c>
       <c r="D18" t="n">
-        <v>2.351633448806503</v>
+        <v>12.10330988383468</v>
       </c>
     </row>
     <row r="19">
@@ -626,13 +626,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C19" t="n">
-        <v>23.72675442629872</v>
+        <v>41.10388143722698</v>
       </c>
       <c r="D19" t="n">
-        <v>3.726754426298722</v>
+        <v>8.896118562773019</v>
       </c>
     </row>
     <row r="20">
@@ -640,13 +640,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>54.75659001094674</v>
+        <v>21.94106715549063</v>
       </c>
       <c r="D20" t="n">
-        <v>7.243409989053262</v>
+        <v>11.94106715549063</v>
       </c>
     </row>
     <row r="21">
@@ -654,13 +654,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C21" t="n">
-        <v>29.14414627292221</v>
+        <v>51.18678536342997</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8558537270777933</v>
+        <v>10.81321463657003</v>
       </c>
     </row>
     <row r="22">
@@ -668,13 +668,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>23.50648644209756</v>
+        <v>6.277526643940298</v>
       </c>
       <c r="D22" t="n">
-        <v>3.506486442097557</v>
+        <v>3.722473356059702</v>
       </c>
     </row>
     <row r="23">
@@ -682,13 +682,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C23" t="n">
-        <v>42.408101236264</v>
+        <v>20.40915552880869</v>
       </c>
       <c r="D23" t="n">
-        <v>2.408101236263995</v>
+        <v>0.409155528808693</v>
       </c>
     </row>
     <row r="24">
@@ -696,13 +696,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C24" t="n">
-        <v>25.87149330542686</v>
+        <v>52.91097478482031</v>
       </c>
       <c r="D24" t="n">
-        <v>5.87149330542686</v>
+        <v>22.91097478482031</v>
       </c>
     </row>
     <row r="25">
@@ -710,13 +710,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>2.239629903087063</v>
+        <v>10.35112226045612</v>
       </c>
       <c r="D25" t="n">
-        <v>2.239629903087063</v>
+        <v>0.3511222604561155</v>
       </c>
     </row>
     <row r="26">
@@ -727,10 +727,10 @@
         <v>62</v>
       </c>
       <c r="C26" t="n">
-        <v>49.72623383981392</v>
+        <v>48.78245873828957</v>
       </c>
       <c r="D26" t="n">
-        <v>12.27376616018608</v>
+        <v>13.21754126171043</v>
       </c>
     </row>
     <row r="27">
@@ -738,13 +738,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C27" t="n">
-        <v>31.51554345446112</v>
+        <v>44.67572510363031</v>
       </c>
       <c r="D27" t="n">
-        <v>8.484456545538883</v>
+        <v>17.32427489636969</v>
       </c>
     </row>
     <row r="28">
@@ -752,13 +752,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C28" t="n">
-        <v>54.81323031161661</v>
+        <v>50.01044772302684</v>
       </c>
       <c r="D28" t="n">
-        <v>7.186769688383386</v>
+        <v>10.01044772302684</v>
       </c>
     </row>
     <row r="29">
@@ -766,13 +766,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>41.25667996388554</v>
+        <v>51.05062652512311</v>
       </c>
       <c r="D29" t="n">
-        <v>8.743320036114461</v>
+        <v>21.05062652512311</v>
       </c>
     </row>
     <row r="30">
@@ -780,13 +780,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C30" t="n">
-        <v>21.78407999884814</v>
+        <v>59.10518449642112</v>
       </c>
       <c r="D30" t="n">
-        <v>1.784079998848135</v>
+        <v>9.105184496421124</v>
       </c>
     </row>
     <row r="31">
@@ -794,13 +794,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>36.31093545651741</v>
+        <v>5.616590626551947</v>
       </c>
       <c r="D31" t="n">
-        <v>6.310935456517413</v>
+        <v>4.383409373448053</v>
       </c>
     </row>
     <row r="32">
@@ -808,13 +808,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C32" t="n">
-        <v>18.08870467457928</v>
+        <v>51.07910719383462</v>
       </c>
       <c r="D32" t="n">
-        <v>1.911295325420717</v>
+        <v>10.92089280616538</v>
       </c>
     </row>
     <row r="33">
@@ -822,13 +822,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C33" t="n">
-        <v>66.24067968008436</v>
+        <v>46.22243154476319</v>
       </c>
       <c r="D33" t="n">
-        <v>8.759320319915645</v>
+        <v>15.77756845523681</v>
       </c>
     </row>
     <row r="34">
@@ -836,13 +836,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C34" t="n">
-        <v>55.39746666403091</v>
+        <v>30.05456775571056</v>
       </c>
       <c r="D34" t="n">
-        <v>5.397466664030908</v>
+        <v>0.05456775571056482</v>
       </c>
     </row>
     <row r="35">
@@ -850,13 +850,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C35" t="n">
-        <v>56.45006508579944</v>
+        <v>19.56917593325611</v>
       </c>
       <c r="D35" t="n">
-        <v>5.549934914200563</v>
+        <v>0.4308240667438881</v>
       </c>
     </row>
     <row r="36">
@@ -864,13 +864,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4044512474251496</v>
+        <v>42.6019096849223</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4044512474251496</v>
+        <v>2.601909684922298</v>
       </c>
     </row>
     <row r="37">
@@ -881,10 +881,10 @@
         <v>30</v>
       </c>
       <c r="C37" t="n">
-        <v>34.9519707595767</v>
+        <v>49.77672022144181</v>
       </c>
       <c r="D37" t="n">
-        <v>4.951970759576696</v>
+        <v>19.77672022144181</v>
       </c>
     </row>
     <row r="38">
@@ -892,13 +892,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C38" t="n">
-        <v>35.96249493240525</v>
+        <v>66.20950274294802</v>
       </c>
       <c r="D38" t="n">
-        <v>5.962494932405249</v>
+        <v>8.790497257051982</v>
       </c>
     </row>
     <row r="39">
@@ -906,13 +906,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C39" t="n">
-        <v>39.81704323856928</v>
+        <v>70.63196138964038</v>
       </c>
       <c r="D39" t="n">
-        <v>9.817043238569276</v>
+        <v>30.63196138964038</v>
       </c>
     </row>
     <row r="40">
@@ -920,13 +920,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>13.69587311396057</v>
+        <v>2.880986802045588</v>
       </c>
       <c r="D40" t="n">
-        <v>3.695873113960566</v>
+        <v>2.880986802045588</v>
       </c>
     </row>
     <row r="41">
@@ -934,13 +934,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C41" t="n">
-        <v>1.467530826365794</v>
+        <v>78.5388842243149</v>
       </c>
       <c r="D41" t="n">
-        <v>1.467530826365794</v>
+        <v>3.538884224314899</v>
       </c>
     </row>
     <row r="42">
@@ -948,13 +948,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C42" t="n">
-        <v>52.08864593967802</v>
+        <v>17.75847417238212</v>
       </c>
       <c r="D42" t="n">
-        <v>9.911354060321976</v>
+        <v>7.758474172382115</v>
       </c>
     </row>
     <row r="43">
@@ -962,13 +962,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C43" t="n">
-        <v>57.52226703506835</v>
+        <v>79.67884104221893</v>
       </c>
       <c r="D43" t="n">
-        <v>4.477732964931647</v>
+        <v>4.678841042218934</v>
       </c>
     </row>
     <row r="44">
@@ -976,13 +976,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C44" t="n">
-        <v>42.10457879990904</v>
+        <v>48.00916326684154</v>
       </c>
       <c r="D44" t="n">
-        <v>7.895421200090965</v>
+        <v>8.00916326684154</v>
       </c>
     </row>
     <row r="45">
@@ -990,13 +990,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C45" t="n">
-        <v>7.052229096697314</v>
+        <v>49.2259938626792</v>
       </c>
       <c r="D45" t="n">
-        <v>2.947770903302686</v>
+        <v>12.7740061373208</v>
       </c>
     </row>
     <row r="46">
@@ -1004,13 +1004,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C46" t="n">
-        <v>56.24177842106671</v>
+        <v>25.30530919573994</v>
       </c>
       <c r="D46" t="n">
-        <v>5.758221578933288</v>
+        <v>5.305309195739937</v>
       </c>
     </row>
     <row r="47">
@@ -1018,13 +1018,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>30.29735751431495</v>
+        <v>10.45641402087192</v>
       </c>
       <c r="D47" t="n">
-        <v>10.29735751431495</v>
+        <v>0.4564140208719234</v>
       </c>
     </row>
     <row r="48">
@@ -1032,13 +1032,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C48" t="n">
-        <v>4.329176146745922</v>
+        <v>48.56067406760086</v>
       </c>
       <c r="D48" t="n">
-        <v>4.329176146745922</v>
+        <v>1.439325932399143</v>
       </c>
     </row>
     <row r="49">
@@ -1046,13 +1046,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C49" t="n">
-        <v>53.11124423932231</v>
+        <v>37.73375867190861</v>
       </c>
       <c r="D49" t="n">
-        <v>8.888755760677689</v>
+        <v>7.73375867190861</v>
       </c>
     </row>
     <row r="50">
@@ -1060,13 +1060,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C50" t="n">
-        <v>47.53127398868356</v>
+        <v>34.99405755003983</v>
       </c>
       <c r="D50" t="n">
-        <v>7.531273988683559</v>
+        <v>4.994057550039827</v>
       </c>
     </row>
     <row r="51">
@@ -1074,13 +1074,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>20.35479944072333</v>
+        <v>49.49250073700993</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3547994407233261</v>
+        <v>0.5074992629900663</v>
       </c>
     </row>
     <row r="52">
@@ -1088,13 +1088,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C52" t="n">
-        <v>44.8090839505147</v>
+        <v>20.73362044495336</v>
       </c>
       <c r="D52" t="n">
-        <v>17.1909160494853</v>
+        <v>0.7336204449533561</v>
       </c>
     </row>
     <row r="53">
@@ -1102,13 +1102,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C53" t="n">
-        <v>40.40691581231203</v>
+        <v>-0.06495216507978974</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4069158123120289</v>
+        <v>10.06495216507979</v>
       </c>
     </row>
     <row r="54">
@@ -1116,13 +1116,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>46.97702866960787</v>
+        <v>2.709167612205711</v>
       </c>
       <c r="D54" t="n">
-        <v>3.022971330392132</v>
+        <v>2.709167612205711</v>
       </c>
     </row>
     <row r="55">
@@ -1130,13 +1130,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C55" t="n">
-        <v>13.37575794553961</v>
+        <v>35.20186970015676</v>
       </c>
       <c r="D55" t="n">
-        <v>3.375757945539615</v>
+        <v>14.79813029984324</v>
       </c>
     </row>
     <row r="56">
@@ -1144,13 +1144,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.6211484555426274</v>
+        <v>51.88553863761751</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6211484555426274</v>
+        <v>21.88553863761751</v>
       </c>
     </row>
     <row r="57">
@@ -1158,13 +1158,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C57" t="n">
-        <v>39.95573801267533</v>
+        <v>47.6087953800476</v>
       </c>
       <c r="D57" t="n">
-        <v>0.04426198732466702</v>
+        <v>2.391204619952397</v>
       </c>
     </row>
     <row r="58">
@@ -1172,13 +1172,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C58" t="n">
-        <v>42.22886344913417</v>
+        <v>16.95423824092848</v>
       </c>
       <c r="D58" t="n">
-        <v>7.771136550865826</v>
+        <v>6.954238240928476</v>
       </c>
     </row>
     <row r="59">
@@ -1186,13 +1186,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C59" t="n">
-        <v>41.46624205104778</v>
+        <v>81.15664979859358</v>
       </c>
       <c r="D59" t="n">
-        <v>1.466242051047779</v>
+        <v>6.156649798593577</v>
       </c>
     </row>
     <row r="60">
@@ -1200,13 +1200,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C60" t="n">
-        <v>28.95737912352939</v>
+        <v>36.39897482628928</v>
       </c>
       <c r="D60" t="n">
-        <v>11.04262087647061</v>
+        <v>6.398974826289283</v>
       </c>
     </row>
     <row r="61">
@@ -1214,13 +1214,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C61" t="n">
-        <v>65.54060017438084</v>
+        <v>44.24377468994322</v>
       </c>
       <c r="D61" t="n">
-        <v>25.54060017438084</v>
+        <v>17.75622531005678</v>
       </c>
     </row>
     <row r="62">
@@ -1228,13 +1228,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C62" t="n">
-        <v>55.60779986471452</v>
+        <v>36.31894835454526</v>
       </c>
       <c r="D62" t="n">
-        <v>25.60779986471452</v>
+        <v>25.68105164545474</v>
       </c>
     </row>
     <row r="63">
@@ -1242,13 +1242,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C63" t="n">
-        <v>1.454134110010677</v>
+        <v>39.07419671763781</v>
       </c>
       <c r="D63" t="n">
-        <v>1.454134110010677</v>
+        <v>0.9258032823621889</v>
       </c>
     </row>
     <row r="64">
@@ -1256,13 +1256,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C64" t="n">
-        <v>40.94521226600921</v>
+        <v>59.56080837085847</v>
       </c>
       <c r="D64" t="n">
-        <v>21.05478773399079</v>
+        <v>9.560808370858474</v>
       </c>
     </row>
     <row r="65">
@@ -1270,13 +1270,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C65" t="n">
-        <v>51.20785101927348</v>
+        <v>35.75808542599179</v>
       </c>
       <c r="D65" t="n">
-        <v>1.207851019273477</v>
+        <v>5.758085425991794</v>
       </c>
     </row>
     <row r="66">
@@ -1287,10 +1287,10 @@
         <v>62</v>
       </c>
       <c r="C66" t="n">
-        <v>60.00727092576403</v>
+        <v>52.38443960094774</v>
       </c>
       <c r="D66" t="n">
-        <v>1.992729074235967</v>
+        <v>9.615560399052256</v>
       </c>
     </row>
     <row r="67">
@@ -1298,13 +1298,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C67" t="n">
-        <v>28.70121113087976</v>
+        <v>15.8182406799032</v>
       </c>
       <c r="D67" t="n">
-        <v>8.701211130879763</v>
+        <v>5.818240679903202</v>
       </c>
     </row>
     <row r="68">
@@ -1312,13 +1312,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C68" t="n">
-        <v>22.00376190183933</v>
+        <v>24.54573178578719</v>
       </c>
       <c r="D68" t="n">
-        <v>12.00376190183933</v>
+        <v>4.54573178578719</v>
       </c>
     </row>
     <row r="69">
@@ -1326,13 +1326,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C69" t="n">
-        <v>11.35841715692728</v>
+        <v>46.76217313115718</v>
       </c>
       <c r="D69" t="n">
-        <v>1.358417156927281</v>
+        <v>3.237826868842824</v>
       </c>
     </row>
     <row r="70">
@@ -1340,13 +1340,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C70" t="n">
-        <v>36.85416364603243</v>
+        <v>3.783752990260673</v>
       </c>
       <c r="D70" t="n">
-        <v>6.854163646032433</v>
+        <v>6.216247009739327</v>
       </c>
     </row>
     <row r="71">
@@ -1354,13 +1354,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C71" t="n">
-        <v>42.87580839984367</v>
+        <v>49.48693499406478</v>
       </c>
       <c r="D71" t="n">
-        <v>12.87580839984367</v>
+        <v>12.51306500593522</v>
       </c>
     </row>
     <row r="72">
@@ -1368,13 +1368,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C72" t="n">
-        <v>48.76761130967915</v>
+        <v>36.52273831316791</v>
       </c>
       <c r="D72" t="n">
-        <v>8.767611309679154</v>
+        <v>38.47726168683209</v>
       </c>
     </row>
     <row r="73">
@@ -1382,13 +1382,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>7.159722599938632</v>
+        <v>2.206755190951751</v>
       </c>
       <c r="D73" t="n">
-        <v>2.840277400061368</v>
+        <v>2.206755190951751</v>
       </c>
     </row>
     <row r="74">
@@ -1396,13 +1396,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C74" t="n">
-        <v>10.87248488375587</v>
+        <v>21.51993348952243</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8724848837558667</v>
+        <v>1.519933489522433</v>
       </c>
     </row>
     <row r="75">
@@ -1410,13 +1410,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>51.33016291712791</v>
+        <v>-0.6861807512685776</v>
       </c>
       <c r="D75" t="n">
-        <v>1.330162917127907</v>
+        <v>0.6861807512685776</v>
       </c>
     </row>
     <row r="76">
@@ -1424,13 +1424,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C76" t="n">
-        <v>22.46210511837558</v>
+        <v>46.68626406802719</v>
       </c>
       <c r="D76" t="n">
-        <v>2.462105118375582</v>
+        <v>3.313735931972815</v>
       </c>
     </row>
     <row r="77">
@@ -1438,13 +1438,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>28.09694286946232</v>
+        <v>4.206436880340475</v>
       </c>
       <c r="D77" t="n">
-        <v>11.90305713053768</v>
+        <v>4.206436880340475</v>
       </c>
     </row>
     <row r="78">
@@ -1452,13 +1452,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C78" t="n">
-        <v>26.95905700736306</v>
+        <v>43.42791358062646</v>
       </c>
       <c r="D78" t="n">
-        <v>6.959057007363064</v>
+        <v>18.57208641937354</v>
       </c>
     </row>
     <row r="79">
@@ -1466,13 +1466,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C79" t="n">
-        <v>14.43530879535594</v>
+        <v>34.79541305813935</v>
       </c>
       <c r="D79" t="n">
-        <v>4.435308795355944</v>
+        <v>4.795413058139346</v>
       </c>
     </row>
     <row r="80">
@@ -1480,13 +1480,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C80" t="n">
-        <v>45.63831327148796</v>
+        <v>54.48087496288522</v>
       </c>
       <c r="D80" t="n">
-        <v>4.361686728512041</v>
+        <v>7.519125037114783</v>
       </c>
     </row>
     <row r="81">
@@ -1494,13 +1494,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C81" t="n">
-        <v>14.05903572337072</v>
+        <v>70.94281125662135</v>
       </c>
       <c r="D81" t="n">
-        <v>15.94096427662928</v>
+        <v>4.057188743378646</v>
       </c>
     </row>
     <row r="82">
@@ -1508,13 +1508,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C82" t="n">
-        <v>40.76930060598874</v>
+        <v>55.11575346333853</v>
       </c>
       <c r="D82" t="n">
-        <v>20.76930060598874</v>
+        <v>15.11575346333853</v>
       </c>
     </row>
     <row r="83">
@@ -1522,13 +1522,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C83" t="n">
-        <v>39.76780039555052</v>
+        <v>40.84643720776736</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2321996044494767</v>
+        <v>10.84643720776736</v>
       </c>
     </row>
     <row r="84">
@@ -1536,13 +1536,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C84" t="n">
-        <v>11.10848991722934</v>
+        <v>53.97350010441972</v>
       </c>
       <c r="D84" t="n">
-        <v>1.108489917229342</v>
+        <v>8.02649989558028</v>
       </c>
     </row>
     <row r="85">
@@ -1550,13 +1550,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C85" t="n">
-        <v>11.74696545053358</v>
+        <v>33.92768070983435</v>
       </c>
       <c r="D85" t="n">
-        <v>1.74696545053358</v>
+        <v>13.92768070983435</v>
       </c>
     </row>
     <row r="86">
@@ -1564,13 +1564,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7872749944823303</v>
+        <v>46.61366171230101</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7872749944823303</v>
+        <v>3.38633828769899</v>
       </c>
     </row>
     <row r="87">
@@ -1581,10 +1581,10 @@
         <v>50</v>
       </c>
       <c r="C87" t="n">
-        <v>53.1037919578845</v>
+        <v>59.83475719869694</v>
       </c>
       <c r="D87" t="n">
-        <v>3.103791957884496</v>
+        <v>9.834757198696941</v>
       </c>
     </row>
     <row r="88">
@@ -1592,13 +1592,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C88" t="n">
-        <v>53.06065048830168</v>
+        <v>41.8972323454301</v>
       </c>
       <c r="D88" t="n">
-        <v>3.060650488301675</v>
+        <v>1.897232345430105</v>
       </c>
     </row>
     <row r="89">
@@ -1606,13 +1606,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C89" t="n">
-        <v>73.83376894078799</v>
+        <v>21.39654847899132</v>
       </c>
       <c r="D89" t="n">
-        <v>1.166231059212009</v>
+        <v>1.396548478991324</v>
       </c>
     </row>
     <row r="90">
@@ -1620,13 +1620,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C90" t="n">
-        <v>6.858521916112302</v>
+        <v>43.11296613136317</v>
       </c>
       <c r="D90" t="n">
-        <v>3.141478083887698</v>
+        <v>18.88703386863683</v>
       </c>
     </row>
     <row r="91">
@@ -1634,13 +1634,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>26.8188525607589</v>
+        <v>2.01115872469252</v>
       </c>
       <c r="D91" t="n">
-        <v>6.818852560758899</v>
+        <v>2.01115872469252</v>
       </c>
     </row>
     <row r="92">
@@ -1648,13 +1648,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>50.461143697548</v>
+        <v>4.399867890955756</v>
       </c>
       <c r="D92" t="n">
-        <v>20.461143697548</v>
+        <v>4.399867890955756</v>
       </c>
     </row>
     <row r="93">
@@ -1662,13 +1662,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>45.29862154383811</v>
+        <v>3.412417240936826</v>
       </c>
       <c r="D93" t="n">
-        <v>15.29862154383811</v>
+        <v>3.412417240936826</v>
       </c>
     </row>
     <row r="94">
@@ -1676,13 +1676,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C94" t="n">
-        <v>40.41231359044526</v>
+        <v>51.42505163135293</v>
       </c>
       <c r="D94" t="n">
-        <v>20.41231359044526</v>
+        <v>23.57494836864707</v>
       </c>
     </row>
     <row r="95">
@@ -1693,10 +1693,10 @@
         <v>20</v>
       </c>
       <c r="C95" t="n">
-        <v>22.07155826471606</v>
+        <v>28.30335789552865</v>
       </c>
       <c r="D95" t="n">
-        <v>2.07155826471606</v>
+        <v>8.303357895528649</v>
       </c>
     </row>
     <row r="96">
@@ -1704,13 +1704,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>53.55887194402981</v>
+        <v>2.757920077305571</v>
       </c>
       <c r="D96" t="n">
-        <v>8.441128055970189</v>
+        <v>2.757920077305571</v>
       </c>
     </row>
     <row r="97">
@@ -1718,13 +1718,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C97" t="n">
-        <v>28.20867732737035</v>
+        <v>17.75760617632963</v>
       </c>
       <c r="D97" t="n">
-        <v>11.79132267262965</v>
+        <v>2.242393823670369</v>
       </c>
     </row>
     <row r="98">
@@ -1732,13 +1732,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.6759547726006092</v>
+        <v>42.41471885591744</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6759547726006092</v>
+        <v>19.58528114408256</v>
       </c>
     </row>
     <row r="99">
@@ -1746,13 +1746,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C99" t="n">
-        <v>8.539410412936114</v>
+        <v>13.88625810220329</v>
       </c>
       <c r="D99" t="n">
-        <v>1.460589587063886</v>
+        <v>6.113741897796713</v>
       </c>
     </row>
     <row r="100">
@@ -1760,13 +1760,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C100" t="n">
-        <v>3.24697998953646</v>
+        <v>42.745266026149</v>
       </c>
       <c r="D100" t="n">
-        <v>3.24697998953646</v>
+        <v>19.254733973851</v>
       </c>
     </row>
     <row r="101">
@@ -1774,13 +1774,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C101" t="n">
-        <v>15.55953339243445</v>
+        <v>21.23124489202203</v>
       </c>
       <c r="D101" t="n">
-        <v>5.559533392434446</v>
+        <v>1.231244892022033</v>
       </c>
     </row>
     <row r="102">
@@ -1788,13 +1788,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C102" t="n">
-        <v>53.69151415181305</v>
+        <v>20.8482679669511</v>
       </c>
       <c r="D102" t="n">
-        <v>8.308485848186955</v>
+        <v>10.8482679669511</v>
       </c>
     </row>
     <row r="103">
@@ -1802,13 +1802,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C103" t="n">
-        <v>2.968209806113639</v>
+        <v>42.94059454064696</v>
       </c>
       <c r="D103" t="n">
-        <v>2.968209806113639</v>
+        <v>2.940594540646963</v>
       </c>
     </row>
     <row r="104">
@@ -1816,13 +1816,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C104" t="n">
-        <v>33.60416566941128</v>
+        <v>60.23415604846659</v>
       </c>
       <c r="D104" t="n">
-        <v>13.60416566941128</v>
+        <v>1.765843951533412</v>
       </c>
     </row>
     <row r="105">
@@ -1833,10 +1833,10 @@
         <v>62</v>
       </c>
       <c r="C105" t="n">
-        <v>47.99979874603078</v>
+        <v>54.46731761979516</v>
       </c>
       <c r="D105" t="n">
-        <v>14.00020125396922</v>
+        <v>7.532682380204839</v>
       </c>
     </row>
     <row r="106">
@@ -1844,13 +1844,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C106" t="n">
-        <v>27.30413902555825</v>
+        <v>37.78545607842347</v>
       </c>
       <c r="D106" t="n">
-        <v>7.30413902555825</v>
+        <v>2.214543921576528</v>
       </c>
     </row>
     <row r="107">
@@ -1858,13 +1858,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C107" t="n">
-        <v>57.42955225475608</v>
+        <v>50.66177600334665</v>
       </c>
       <c r="D107" t="n">
-        <v>7.429552254756082</v>
+        <v>11.33822399665335</v>
       </c>
     </row>
     <row r="108">
@@ -1872,13 +1872,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C108" t="n">
-        <v>56.69527111792433</v>
+        <v>27.90701527970882</v>
       </c>
       <c r="D108" t="n">
-        <v>6.695271117924328</v>
+        <v>7.907015279708816</v>
       </c>
     </row>
     <row r="109">
@@ -1886,13 +1886,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C109" t="n">
-        <v>51.26605152578713</v>
+        <v>69.57055013829086</v>
       </c>
       <c r="D109" t="n">
-        <v>10.73394847421287</v>
+        <v>5.429449861709145</v>
       </c>
     </row>
     <row r="110">
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1221321342770083</v>
+        <v>-2.727272603514453</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1221321342770083</v>
+        <v>2.727272603514453</v>
       </c>
     </row>
     <row r="111">
@@ -1914,13 +1914,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C111" t="n">
-        <v>41.80691876587095</v>
+        <v>3.026541811786789</v>
       </c>
       <c r="D111" t="n">
-        <v>11.80691876587095</v>
+        <v>6.973458188213211</v>
       </c>
     </row>
     <row r="112">
@@ -1928,13 +1928,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C112" t="n">
-        <v>21.66554696915322</v>
+        <v>44.85234020502489</v>
       </c>
       <c r="D112" t="n">
-        <v>1.665546969153219</v>
+        <v>17.14765979497511</v>
       </c>
     </row>
     <row r="113">
@@ -1942,13 +1942,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C113" t="n">
-        <v>4.04770290396384</v>
+        <v>44.77564313750608</v>
       </c>
       <c r="D113" t="n">
-        <v>4.04770290396384</v>
+        <v>17.22435686249392</v>
       </c>
     </row>
     <row r="114">
@@ -1956,13 +1956,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C114" t="n">
-        <v>27.07854704721517</v>
+        <v>43.99245770983567</v>
       </c>
       <c r="D114" t="n">
-        <v>17.07854704721517</v>
+        <v>13.99245770983567</v>
       </c>
     </row>
     <row r="115">
@@ -1970,13 +1970,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C115" t="n">
-        <v>7.279378831573389</v>
+        <v>54.19769924450502</v>
       </c>
       <c r="D115" t="n">
-        <v>2.720621168426611</v>
+        <v>14.19769924450502</v>
       </c>
     </row>
     <row r="116">
@@ -1984,13 +1984,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C116" t="n">
-        <v>13.27619642674624</v>
+        <v>17.51168604035129</v>
       </c>
       <c r="D116" t="n">
-        <v>3.276196426746239</v>
+        <v>2.488313959648714</v>
       </c>
     </row>
     <row r="117">
@@ -1998,13 +1998,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>30.09868589525367</v>
+        <v>3.057523077159539</v>
       </c>
       <c r="D117" t="n">
-        <v>20.09868589525367</v>
+        <v>3.057523077159539</v>
       </c>
     </row>
     <row r="118">
@@ -2012,13 +2012,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>25.54664985436236</v>
+        <v>1.310743116664294</v>
       </c>
       <c r="D118" t="n">
-        <v>5.546649854362361</v>
+        <v>1.310743116664294</v>
       </c>
     </row>
     <row r="119">
@@ -2026,13 +2026,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>25.7489860387815</v>
+        <v>4.845382422106153</v>
       </c>
       <c r="D119" t="n">
-        <v>15.7489860387815</v>
+        <v>4.845382422106153</v>
       </c>
     </row>
     <row r="120">
@@ -2040,13 +2040,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C120" t="n">
-        <v>53.24396883440583</v>
+        <v>53.49876407459546</v>
       </c>
       <c r="D120" t="n">
-        <v>3.243968834405827</v>
+        <v>8.501235925404536</v>
       </c>
     </row>
     <row r="121">
@@ -2054,13 +2054,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C121" t="n">
-        <v>37.87190348935037</v>
+        <v>64.83995409783006</v>
       </c>
       <c r="D121" t="n">
-        <v>2.128096510649634</v>
+        <v>14.83995409783006</v>
       </c>
     </row>
     <row r="122">
@@ -2068,13 +2068,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C122" t="n">
-        <v>39.23305234694389</v>
+        <v>42.22352419602014</v>
       </c>
       <c r="D122" t="n">
-        <v>9.233052346943886</v>
+        <v>7.776475803979856</v>
       </c>
     </row>
     <row r="123">
@@ -2082,13 +2082,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C123" t="n">
-        <v>56.2564170783219</v>
+        <v>48.02442975617956</v>
       </c>
       <c r="D123" t="n">
-        <v>6.256417078321903</v>
+        <v>13.97557024382044</v>
       </c>
     </row>
     <row r="124">
@@ -2096,13 +2096,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C124" t="n">
-        <v>68.80624493508427</v>
+        <v>49.06978945998074</v>
       </c>
       <c r="D124" t="n">
-        <v>6.193755064915734</v>
+        <v>0.9302105400192602</v>
       </c>
     </row>
     <row r="125">
@@ -2110,13 +2110,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C125" t="n">
-        <v>31.53652225781734</v>
+        <v>44.55717095485414</v>
       </c>
       <c r="D125" t="n">
-        <v>1.536522257817335</v>
+        <v>4.557170954854136</v>
       </c>
     </row>
     <row r="126">
@@ -2124,13 +2124,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C126" t="n">
-        <v>47.0971743676828</v>
+        <v>29.28239577393364</v>
       </c>
       <c r="D126" t="n">
-        <v>7.097174367682797</v>
+        <v>0.7176042260663564</v>
       </c>
     </row>
     <row r="127">
@@ -2138,13 +2138,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C127" t="n">
-        <v>57.26305657181717</v>
+        <v>19.87087455003969</v>
       </c>
       <c r="D127" t="n">
-        <v>4.736943428182826</v>
+        <v>0.1291254499603092</v>
       </c>
     </row>
     <row r="128">
@@ -2152,13 +2152,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C128" t="n">
-        <v>81.19138425820049</v>
+        <v>62.86258954186378</v>
       </c>
       <c r="D128" t="n">
-        <v>6.191384258200486</v>
+        <v>12.86258954186378</v>
       </c>
     </row>
     <row r="129">
@@ -2166,13 +2166,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C129" t="n">
-        <v>68.71483760041164</v>
+        <v>53.86304934700458</v>
       </c>
       <c r="D129" t="n">
-        <v>6.285162399588359</v>
+        <v>13.86304934700458</v>
       </c>
     </row>
     <row r="130">
@@ -2183,10 +2183,10 @@
         <v>30</v>
       </c>
       <c r="C130" t="n">
-        <v>51.90247811265639</v>
+        <v>31.69642256194449</v>
       </c>
       <c r="D130" t="n">
-        <v>21.90247811265639</v>
+        <v>1.696422561944495</v>
       </c>
     </row>
     <row r="131">
@@ -2197,10 +2197,10 @@
         <v>10</v>
       </c>
       <c r="C131" t="n">
-        <v>5.743311310885964</v>
+        <v>-1.561769419482406</v>
       </c>
       <c r="D131" t="n">
-        <v>4.256688689114036</v>
+        <v>11.56176941948241</v>
       </c>
     </row>
     <row r="132">
@@ -2208,13 +2208,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C132" t="n">
-        <v>42.41411659171582</v>
+        <v>43.03838772139363</v>
       </c>
       <c r="D132" t="n">
-        <v>12.41411659171582</v>
+        <v>18.96161227860637</v>
       </c>
     </row>
     <row r="133">
@@ -2222,13 +2222,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C133" t="n">
-        <v>26.82789213085016</v>
+        <v>49.25435452422806</v>
       </c>
       <c r="D133" t="n">
-        <v>3.172107869149841</v>
+        <v>12.74564547577194</v>
       </c>
     </row>
     <row r="134">
@@ -2236,13 +2236,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C134" t="n">
-        <v>54.36302823596229</v>
+        <v>20.17142994765154</v>
       </c>
       <c r="D134" t="n">
-        <v>20.63697176403771</v>
+        <v>0.1714299476515393</v>
       </c>
     </row>
     <row r="135">
@@ -2250,13 +2250,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C135" t="n">
-        <v>24.51632738945771</v>
+        <v>44.43594602258054</v>
       </c>
       <c r="D135" t="n">
-        <v>5.483672610542293</v>
+        <v>4.435946022580545</v>
       </c>
     </row>
     <row r="136">
@@ -2264,13 +2264,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C136" t="n">
-        <v>57.21486621611231</v>
+        <v>51.46595061044899</v>
       </c>
       <c r="D136" t="n">
-        <v>7.214866216112313</v>
+        <v>11.46595061044899</v>
       </c>
     </row>
     <row r="137">
@@ -2278,13 +2278,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C137" t="n">
-        <v>2.270488547061864</v>
+        <v>36.51475869688286</v>
       </c>
       <c r="D137" t="n">
-        <v>2.270488547061864</v>
+        <v>25.48524130311714</v>
       </c>
     </row>
     <row r="138">
@@ -2295,10 +2295,10 @@
         <v>10</v>
       </c>
       <c r="C138" t="n">
-        <v>16.10783055826298</v>
+        <v>16.59069416033109</v>
       </c>
       <c r="D138" t="n">
-        <v>6.107830558262982</v>
+        <v>6.59069416033109</v>
       </c>
     </row>
     <row r="139">
@@ -2306,13 +2306,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C139" t="n">
-        <v>45.7740891494389</v>
+        <v>26.41003277617692</v>
       </c>
       <c r="D139" t="n">
-        <v>4.2259108505611</v>
+        <v>6.410032776176919</v>
       </c>
     </row>
     <row r="140">
@@ -2320,13 +2320,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C140" t="n">
-        <v>53.94071536583521</v>
+        <v>33.51366563357112</v>
       </c>
       <c r="D140" t="n">
-        <v>8.05928463416479</v>
+        <v>13.51366563357112</v>
       </c>
     </row>
     <row r="141">
@@ -2334,13 +2334,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C141" t="n">
-        <v>12.18422152741892</v>
+        <v>39.45826822708025</v>
       </c>
       <c r="D141" t="n">
-        <v>2.18422152741892</v>
+        <v>0.5417317729197535</v>
       </c>
     </row>
     <row r="142">
@@ -2351,10 +2351,10 @@
         <v>50</v>
       </c>
       <c r="C142" t="n">
-        <v>42.70303620112153</v>
+        <v>39.48477841675435</v>
       </c>
       <c r="D142" t="n">
-        <v>7.296963798878473</v>
+        <v>10.51522158324565</v>
       </c>
     </row>
     <row r="143">
@@ -2362,13 +2362,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C143" t="n">
-        <v>1.623070862769163</v>
+        <v>17.74441348869734</v>
       </c>
       <c r="D143" t="n">
-        <v>1.623070862769163</v>
+        <v>2.25558651130266</v>
       </c>
     </row>
     <row r="144">
@@ -2376,13 +2376,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C144" t="n">
-        <v>34.53271226569204</v>
+        <v>37.19375645312248</v>
       </c>
       <c r="D144" t="n">
-        <v>4.532712265692041</v>
+        <v>12.80624354687752</v>
       </c>
     </row>
     <row r="145">
@@ -2393,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0.6226856293497385</v>
+        <v>0.7864917032923076</v>
       </c>
       <c r="D145" t="n">
-        <v>0.6226856293497385</v>
+        <v>0.7864917032923076</v>
       </c>
     </row>
     <row r="146">
@@ -2404,13 +2404,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C146" t="n">
-        <v>18.3931747454454</v>
+        <v>69.84276969759836</v>
       </c>
       <c r="D146" t="n">
-        <v>8.3931747454454</v>
+        <v>5.157230302401643</v>
       </c>
     </row>
     <row r="147">
@@ -2418,13 +2418,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C147" t="n">
-        <v>44.00621590586849</v>
+        <v>55.38172697949575</v>
       </c>
       <c r="D147" t="n">
-        <v>17.99378409413151</v>
+        <v>5.381726979495745</v>
       </c>
     </row>
     <row r="148">
@@ -2435,10 +2435,10 @@
         <v>20</v>
       </c>
       <c r="C148" t="n">
-        <v>28.82780415579947</v>
+        <v>32.80250899142673</v>
       </c>
       <c r="D148" t="n">
-        <v>8.82780415579947</v>
+        <v>12.80250899142673</v>
       </c>
     </row>
     <row r="149">
@@ -2446,13 +2446,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C149" t="n">
-        <v>40.22821872349765</v>
+        <v>48.95867829085244</v>
       </c>
       <c r="D149" t="n">
-        <v>21.77178127650235</v>
+        <v>1.04132170914756</v>
       </c>
     </row>
     <row r="150">
@@ -2460,13 +2460,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>32.26674993355604</v>
+        <v>2.355251514407375</v>
       </c>
       <c r="D150" t="n">
-        <v>2.266749933556042</v>
+        <v>2.355251514407375</v>
       </c>
     </row>
     <row r="151">
@@ -2474,13 +2474,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>51.4811797351916</v>
+        <v>1.915799800392975</v>
       </c>
       <c r="D151" t="n">
-        <v>1.481179735191596</v>
+        <v>1.915799800392975</v>
       </c>
     </row>
     <row r="152">
@@ -2488,13 +2488,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C152" t="n">
-        <v>50.67773663771628</v>
+        <v>-0.5260700718015361</v>
       </c>
       <c r="D152" t="n">
-        <v>11.32226336228372</v>
+        <v>10.52607007180154</v>
       </c>
     </row>
     <row r="153">
@@ -2502,13 +2502,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C153" t="n">
-        <v>33.82385829194181</v>
+        <v>52.71048502211875</v>
       </c>
       <c r="D153" t="n">
-        <v>6.176141708058189</v>
+        <v>2.710485022118746</v>
       </c>
     </row>
     <row r="154">
@@ -2516,13 +2516,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C154" t="n">
-        <v>35.81966521148393</v>
+        <v>20.52427660141743</v>
       </c>
       <c r="D154" t="n">
-        <v>5.81966521148393</v>
+        <v>10.52427660141743</v>
       </c>
     </row>
     <row r="155">
@@ -2530,13 +2530,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C155" t="n">
-        <v>39.61329690506174</v>
+        <v>-1.755653336352641</v>
       </c>
       <c r="D155" t="n">
-        <v>19.61329690506174</v>
+        <v>11.75565333635264</v>
       </c>
     </row>
     <row r="156">
@@ -2544,13 +2544,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C156" t="n">
-        <v>33.68649262553532</v>
+        <v>53.98626129705496</v>
       </c>
       <c r="D156" t="n">
-        <v>6.313507374464677</v>
+        <v>3.986261297054959</v>
       </c>
     </row>
     <row r="157">
@@ -2558,13 +2558,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C157" t="n">
-        <v>62.786254300157</v>
+        <v>11.71076459223312</v>
       </c>
       <c r="D157" t="n">
-        <v>12.786254300157</v>
+        <v>8.289235407766883</v>
       </c>
     </row>
     <row r="158">
@@ -2575,10 +2575,10 @@
         <v>30</v>
       </c>
       <c r="C158" t="n">
-        <v>30.61296066482447</v>
+        <v>42.63588609764903</v>
       </c>
       <c r="D158" t="n">
-        <v>0.6129606648244703</v>
+        <v>12.63588609764903</v>
       </c>
     </row>
     <row r="159">
@@ -2586,13 +2586,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>28.18694597091933</v>
+        <v>3.509940953414434</v>
       </c>
       <c r="D159" t="n">
-        <v>8.186945970919325</v>
+        <v>3.509940953414434</v>
       </c>
     </row>
     <row r="160">
@@ -2600,13 +2600,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C160" t="n">
-        <v>45.12197526345133</v>
+        <v>41.53259229984386</v>
       </c>
       <c r="D160" t="n">
-        <v>16.87802473654867</v>
+        <v>1.532592299843856</v>
       </c>
     </row>
     <row r="161">
@@ -2614,13 +2614,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C161" t="n">
-        <v>50.34169839932627</v>
+        <v>33.86943781654191</v>
       </c>
       <c r="D161" t="n">
-        <v>11.65830160067373</v>
+        <v>13.86943781654191</v>
       </c>
     </row>
     <row r="162">
@@ -2628,13 +2628,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C162" t="n">
-        <v>37.03778506123022</v>
+        <v>40.12251274664948</v>
       </c>
       <c r="D162" t="n">
-        <v>2.962214938769783</v>
+        <v>9.877487253350516</v>
       </c>
     </row>
     <row r="163">
@@ -2645,10 +2645,10 @@
         <v>20</v>
       </c>
       <c r="C163" t="n">
-        <v>39.40215655620127</v>
+        <v>22.1354432625937</v>
       </c>
       <c r="D163" t="n">
-        <v>19.40215655620127</v>
+        <v>2.1354432625937</v>
       </c>
     </row>
     <row r="164">
@@ -2656,13 +2656,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C164" t="n">
-        <v>30.29592429431872</v>
+        <v>32.66166380536712</v>
       </c>
       <c r="D164" t="n">
-        <v>9.704075705681277</v>
+        <v>2.66166380536712</v>
       </c>
     </row>
     <row r="165">
@@ -2670,13 +2670,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C165" t="n">
-        <v>39.36736745358615</v>
+        <v>63.87510233611603</v>
       </c>
       <c r="D165" t="n">
-        <v>35.63263254641385</v>
+        <v>13.87510233611603</v>
       </c>
     </row>
     <row r="166">
@@ -2684,13 +2684,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C166" t="n">
-        <v>88.61976971541196</v>
+        <v>47.74238488766141</v>
       </c>
       <c r="D166" t="n">
-        <v>13.61976971541196</v>
+        <v>14.25761511233859</v>
       </c>
     </row>
     <row r="167">
@@ -2698,13 +2698,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C167" t="n">
-        <v>17.08419694748901</v>
+        <v>52.98821697622293</v>
       </c>
       <c r="D167" t="n">
-        <v>7.084196947489012</v>
+        <v>22.98821697622293</v>
       </c>
     </row>
     <row r="168">
@@ -2712,13 +2712,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>27.27102961885627</v>
+        <v>0.9089010907207422</v>
       </c>
       <c r="D168" t="n">
-        <v>2.728970381143732</v>
+        <v>0.9089010907207422</v>
       </c>
     </row>
     <row r="169">
@@ -2726,13 +2726,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C169" t="n">
-        <v>31.96145776750569</v>
+        <v>38.69763711198912</v>
       </c>
       <c r="D169" t="n">
-        <v>1.961457767505692</v>
+        <v>23.30236288801088</v>
       </c>
     </row>
     <row r="170">
@@ -2740,13 +2740,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C170" t="n">
-        <v>83.1168905565778</v>
+        <v>20.54031950047532</v>
       </c>
       <c r="D170" t="n">
-        <v>8.1168905565778</v>
+        <v>0.5403195004753165</v>
       </c>
     </row>
     <row r="171">
@@ -2754,13 +2754,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C171" t="n">
-        <v>53.22071585753239</v>
+        <v>26.02442479017202</v>
       </c>
       <c r="D171" t="n">
-        <v>3.22071585753239</v>
+        <v>6.02442479017202</v>
       </c>
     </row>
     <row r="172">
@@ -2771,10 +2771,10 @@
         <v>20</v>
       </c>
       <c r="C172" t="n">
-        <v>22.8158478573317</v>
+        <v>32.1271036779255</v>
       </c>
       <c r="D172" t="n">
-        <v>2.815847857331697</v>
+        <v>12.1271036779255</v>
       </c>
     </row>
     <row r="173">
@@ -2782,13 +2782,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C173" t="n">
-        <v>13.27782467801912</v>
+        <v>71.35111937547506</v>
       </c>
       <c r="D173" t="n">
-        <v>6.722175321980878</v>
+        <v>3.648880624524935</v>
       </c>
     </row>
     <row r="174">
@@ -2796,13 +2796,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C174" t="n">
-        <v>81.96611822280335</v>
+        <v>44.89646143867721</v>
       </c>
       <c r="D174" t="n">
-        <v>6.966118222803345</v>
+        <v>4.896461438677214</v>
       </c>
     </row>
     <row r="175">
@@ -2810,13 +2810,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C175" t="n">
-        <v>36.03162487868168</v>
+        <v>37.49569113774925</v>
       </c>
       <c r="D175" t="n">
-        <v>16.03162487868168</v>
+        <v>24.50430886225075</v>
       </c>
     </row>
     <row r="176">
@@ -2824,13 +2824,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C176" t="n">
-        <v>34.25734725366267</v>
+        <v>19.03399739102689</v>
       </c>
       <c r="D176" t="n">
-        <v>4.257347253662665</v>
+        <v>0.9660026089731097</v>
       </c>
     </row>
     <row r="177">
@@ -2838,13 +2838,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C177" t="n">
-        <v>59.09894329750673</v>
+        <v>39.89884318387895</v>
       </c>
       <c r="D177" t="n">
-        <v>2.901056702493271</v>
+        <v>0.1011568161210548</v>
       </c>
     </row>
     <row r="178">
@@ -2855,10 +2855,10 @@
         <v>62</v>
       </c>
       <c r="C178" t="n">
-        <v>48.27888766732812</v>
+        <v>44.40289822675219</v>
       </c>
       <c r="D178" t="n">
-        <v>13.72111233267188</v>
+        <v>17.59710177324781</v>
       </c>
     </row>
     <row r="179">
@@ -2866,13 +2866,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C179" t="n">
-        <v>2.155480836078146</v>
+        <v>11.61948894860782</v>
       </c>
       <c r="D179" t="n">
-        <v>2.155480836078146</v>
+        <v>1.61948894860782</v>
       </c>
     </row>
     <row r="180">
@@ -2883,10 +2883,10 @@
         <v>62</v>
       </c>
       <c r="C180" t="n">
-        <v>40.51863446283723</v>
+        <v>55.88249509868432</v>
       </c>
       <c r="D180" t="n">
-        <v>21.48136553716277</v>
+        <v>6.117504901315684</v>
       </c>
     </row>
     <row r="181">
@@ -2894,13 +2894,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C181" t="n">
-        <v>3.018326466014408</v>
+        <v>58.13028868267083</v>
       </c>
       <c r="D181" t="n">
-        <v>6.981673533985592</v>
+        <v>8.13028868267083</v>
       </c>
     </row>
     <row r="182">
@@ -2911,10 +2911,10 @@
         <v>62</v>
       </c>
       <c r="C182" t="n">
-        <v>54.80743902623538</v>
+        <v>41.58018543570952</v>
       </c>
       <c r="D182" t="n">
-        <v>7.192560973764621</v>
+        <v>20.41981456429048</v>
       </c>
     </row>
     <row r="183">
@@ -2922,13 +2922,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C183" t="n">
-        <v>2.598568858873235</v>
+        <v>22.92915403659314</v>
       </c>
       <c r="D183" t="n">
-        <v>2.598568858873235</v>
+        <v>2.929154036593136</v>
       </c>
     </row>
     <row r="184">
@@ -2936,13 +2936,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C184" t="n">
-        <v>1.89488565750172</v>
+        <v>10.95359827030656</v>
       </c>
       <c r="D184" t="n">
-        <v>1.89488565750172</v>
+        <v>0.9535982703065642</v>
       </c>
     </row>
     <row r="185">
@@ -2950,13 +2950,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C185" t="n">
-        <v>45.49295506449728</v>
+        <v>53.32314522098522</v>
       </c>
       <c r="D185" t="n">
-        <v>4.507044935502719</v>
+        <v>8.676854779014782</v>
       </c>
     </row>
     <row r="186">
@@ -2964,13 +2964,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C186" t="n">
-        <v>47.05064644416099</v>
+        <v>9.720069007094438</v>
       </c>
       <c r="D186" t="n">
-        <v>2.949353555839011</v>
+        <v>0.2799309929055624</v>
       </c>
     </row>
     <row r="187">
@@ -2978,13 +2978,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C187" t="n">
-        <v>51.41618885731463</v>
+        <v>38.75143859602133</v>
       </c>
       <c r="D187" t="n">
-        <v>10.58381114268537</v>
+        <v>11.24856140397867</v>
       </c>
     </row>
     <row r="188">
@@ -2992,13 +2992,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C188" t="n">
-        <v>41.60753582472224</v>
+        <v>30.82989964827044</v>
       </c>
       <c r="D188" t="n">
-        <v>11.60753582472224</v>
+        <v>31.17010035172956</v>
       </c>
     </row>
     <row r="189">
@@ -3006,13 +3006,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C189" t="n">
-        <v>52.69332061205078</v>
+        <v>24.96710149214937</v>
       </c>
       <c r="D189" t="n">
-        <v>2.693320612050776</v>
+        <v>4.967101492149371</v>
       </c>
     </row>
     <row r="190">
@@ -3020,13 +3020,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C190" t="n">
-        <v>34.44207923751115</v>
+        <v>40.48880711690455</v>
       </c>
       <c r="D190" t="n">
-        <v>14.44207923751115</v>
+        <v>10.48880711690455</v>
       </c>
     </row>
     <row r="191">
@@ -3037,10 +3037,10 @@
         <v>62</v>
       </c>
       <c r="C191" t="n">
-        <v>53.79545313941371</v>
+        <v>38.04818535581709</v>
       </c>
       <c r="D191" t="n">
-        <v>8.204546860586291</v>
+        <v>23.95181464418291</v>
       </c>
     </row>
     <row r="192">
@@ -3048,13 +3048,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C192" t="n">
-        <v>64.5694837706944</v>
+        <v>40.33531031275767</v>
       </c>
       <c r="D192" t="n">
-        <v>10.4305162293056</v>
+        <v>10.33531031275767</v>
       </c>
     </row>
     <row r="193">
@@ -3062,13 +3062,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>49.53855555504045</v>
+        <v>3.567579223148781</v>
       </c>
       <c r="D193" t="n">
-        <v>12.46144444495955</v>
+        <v>3.567579223148781</v>
       </c>
     </row>
     <row r="194">
@@ -3076,13 +3076,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C194" t="n">
-        <v>57.30301123514703</v>
+        <v>45.79034794746327</v>
       </c>
       <c r="D194" t="n">
-        <v>4.696988764852968</v>
+        <v>15.79034794746327</v>
       </c>
     </row>
     <row r="195">
@@ -3090,13 +3090,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C195" t="n">
-        <v>43.67230842023442</v>
+        <v>68.58933165781585</v>
       </c>
       <c r="D195" t="n">
-        <v>13.67230842023442</v>
+        <v>6.410668342184152</v>
       </c>
     </row>
     <row r="196">
@@ -3107,10 +3107,10 @@
         <v>40</v>
       </c>
       <c r="C196" t="n">
-        <v>52.66429784252933</v>
+        <v>55.31821506166386</v>
       </c>
       <c r="D196" t="n">
-        <v>12.66429784252933</v>
+        <v>15.31821506166386</v>
       </c>
     </row>
     <row r="197">
@@ -3118,13 +3118,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C197" t="n">
-        <v>68.8445547859609</v>
+        <v>62.99061116999624</v>
       </c>
       <c r="D197" t="n">
-        <v>6.155445214039105</v>
+        <v>0.9906111699962423</v>
       </c>
     </row>
     <row r="198">
@@ -3132,13 +3132,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C198" t="n">
-        <v>44.96183171877791</v>
+        <v>58.83163939140022</v>
       </c>
       <c r="D198" t="n">
-        <v>14.96183171877791</v>
+        <v>16.16836060859978</v>
       </c>
     </row>
     <row r="199">
@@ -3146,13 +3146,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C199" t="n">
-        <v>9.985179163267226</v>
+        <v>37.30843390230685</v>
       </c>
       <c r="D199" t="n">
-        <v>0.01482083673277401</v>
+        <v>7.308433902306845</v>
       </c>
     </row>
     <row r="200">
@@ -3160,13 +3160,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C200" t="n">
-        <v>30.49742667718982</v>
+        <v>52.50631912316707</v>
       </c>
       <c r="D200" t="n">
-        <v>10.49742667718982</v>
+        <v>22.49368087683293</v>
       </c>
     </row>
     <row r="201">
@@ -3174,13 +3174,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C201" t="n">
-        <v>1.806334229570304</v>
+        <v>19.85467054350465</v>
       </c>
       <c r="D201" t="n">
-        <v>1.806334229570304</v>
+        <v>9.854670543504653</v>
       </c>
     </row>
     <row r="202">
@@ -3188,13 +3188,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C202" t="n">
-        <v>39.74033088145</v>
+        <v>36.74981560424705</v>
       </c>
       <c r="D202" t="n">
-        <v>22.25966911855</v>
+        <v>6.749815604247054</v>
       </c>
     </row>
     <row r="203">
@@ -3202,13 +3202,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C203" t="n">
-        <v>-1.392019784617839</v>
+        <v>42.92008859920197</v>
       </c>
       <c r="D203" t="n">
-        <v>1.392019784617839</v>
+        <v>19.07991140079803</v>
       </c>
     </row>
     <row r="204">
@@ -3216,13 +3216,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C204" t="n">
-        <v>61.46168246313172</v>
+        <v>42.32556660768368</v>
       </c>
       <c r="D204" t="n">
-        <v>13.53831753686828</v>
+        <v>7.674433392316317</v>
       </c>
     </row>
     <row r="205">
@@ -3230,13 +3230,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C205" t="n">
-        <v>11.95934427745184</v>
+        <v>35.00143498354053</v>
       </c>
       <c r="D205" t="n">
-        <v>8.040655722548159</v>
+        <v>5.001434983540527</v>
       </c>
     </row>
     <row r="206">
@@ -3244,13 +3244,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C206" t="n">
-        <v>47.50872209551551</v>
+        <v>35.78713335014982</v>
       </c>
       <c r="D206" t="n">
-        <v>14.49127790448449</v>
+        <v>5.787133350149816</v>
       </c>
     </row>
     <row r="207">
@@ -3258,13 +3258,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>16.46093167390426</v>
+        <v>1.629124855685243</v>
       </c>
       <c r="D207" t="n">
-        <v>6.460931673904263</v>
+        <v>1.629124855685243</v>
       </c>
     </row>
     <row r="208">
@@ -3272,13 +3272,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>54.63193260962334</v>
+        <v>4.568518392969244</v>
       </c>
       <c r="D208" t="n">
-        <v>4.631932609623341</v>
+        <v>4.568518392969244</v>
       </c>
     </row>
     <row r="209">
@@ -3286,13 +3286,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C209" t="n">
-        <v>1.655545464587026</v>
+        <v>49.50145274552001</v>
       </c>
       <c r="D209" t="n">
-        <v>1.655545464587026</v>
+        <v>12.49854725447999</v>
       </c>
     </row>
     <row r="210">
@@ -3303,10 +3303,10 @@
         <v>62</v>
       </c>
       <c r="C210" t="n">
-        <v>44.65422682689478</v>
+        <v>41.33809795994604</v>
       </c>
       <c r="D210" t="n">
-        <v>17.34577317310522</v>
+        <v>20.66190204005396</v>
       </c>
     </row>
     <row r="211">
@@ -3314,13 +3314,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C211" t="n">
-        <v>55.28523336234337</v>
+        <v>18.48360331237477</v>
       </c>
       <c r="D211" t="n">
-        <v>5.285233362343369</v>
+        <v>1.516396687625232</v>
       </c>
     </row>
     <row r="212">
@@ -3328,13 +3328,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C212" t="n">
-        <v>68.5593397486974</v>
+        <v>47.48805216354421</v>
       </c>
       <c r="D212" t="n">
-        <v>6.440660251302603</v>
+        <v>14.51194783645579</v>
       </c>
     </row>
     <row r="213">
@@ -3342,13 +3342,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C213" t="n">
-        <v>35.88173752252364</v>
+        <v>17.94740679072945</v>
       </c>
       <c r="D213" t="n">
-        <v>5.881737522523643</v>
+        <v>2.052593209270547</v>
       </c>
     </row>
     <row r="214">
@@ -3356,13 +3356,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C214" t="n">
-        <v>53.46263413436664</v>
+        <v>27.33113548177767</v>
       </c>
       <c r="D214" t="n">
-        <v>21.53736586563336</v>
+        <v>22.66886451822233</v>
       </c>
     </row>
     <row r="215">
@@ -3373,10 +3373,10 @@
         <v>40</v>
       </c>
       <c r="C215" t="n">
-        <v>62.08174423742731</v>
+        <v>53.96220100110431</v>
       </c>
       <c r="D215" t="n">
-        <v>22.08174423742731</v>
+        <v>13.96220100110431</v>
       </c>
     </row>
     <row r="216">
@@ -3384,13 +3384,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C216" t="n">
-        <v>28.81306663900194</v>
+        <v>61.95359482160463</v>
       </c>
       <c r="D216" t="n">
-        <v>1.186933360998061</v>
+        <v>0.04640517839537495</v>
       </c>
     </row>
     <row r="217">
@@ -3401,10 +3401,10 @@
         <v>20</v>
       </c>
       <c r="C217" t="n">
-        <v>23.90232270794749</v>
+        <v>17.28933529927445</v>
       </c>
       <c r="D217" t="n">
-        <v>3.902322707947491</v>
+        <v>2.710664700725552</v>
       </c>
     </row>
     <row r="218">
@@ -3412,13 +3412,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C218" t="n">
-        <v>28.00067651105008</v>
+        <v>13.09198925129254</v>
       </c>
       <c r="D218" t="n">
-        <v>18.00067651105008</v>
+        <v>6.908010748707461</v>
       </c>
     </row>
     <row r="219">
@@ -3429,10 +3429,10 @@
         <v>30</v>
       </c>
       <c r="C219" t="n">
-        <v>49.77735312180648</v>
+        <v>35.49583833395369</v>
       </c>
       <c r="D219" t="n">
-        <v>19.77735312180648</v>
+        <v>5.495838333953685</v>
       </c>
     </row>
     <row r="220">
@@ -3440,13 +3440,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="C220" t="n">
-        <v>53.23634392372995</v>
+        <v>5.143495809018129</v>
       </c>
       <c r="D220" t="n">
-        <v>21.76365607627005</v>
+        <v>4.856504190981871</v>
       </c>
     </row>
     <row r="221">
@@ -3454,13 +3454,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C221" t="n">
-        <v>16.34689803514882</v>
+        <v>48.50766926731009</v>
       </c>
       <c r="D221" t="n">
-        <v>3.653101964851182</v>
+        <v>8.507669267310092</v>
       </c>
     </row>
     <row r="222">
@@ -3468,13 +3468,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>19.26827202565826</v>
+        <v>2.685731922761303</v>
       </c>
       <c r="D222" t="n">
-        <v>9.268272025658256</v>
+        <v>2.685731922761303</v>
       </c>
     </row>
     <row r="223">
@@ -3485,10 +3485,10 @@
         <v>20</v>
       </c>
       <c r="C223" t="n">
-        <v>12.9360808014893</v>
+        <v>29.33496257894219</v>
       </c>
       <c r="D223" t="n">
-        <v>7.063919198510696</v>
+        <v>9.334962578942189</v>
       </c>
     </row>
     <row r="224">
@@ -3496,13 +3496,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="C224" t="n">
-        <v>63.268777403367</v>
+        <v>13.990141489675</v>
       </c>
       <c r="D224" t="n">
-        <v>11.731222596633</v>
+        <v>3.990141489674997</v>
       </c>
     </row>
     <row r="225">
@@ -3510,13 +3510,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C225" t="n">
-        <v>3.495437775390002</v>
+        <v>55.4340793207412</v>
       </c>
       <c r="D225" t="n">
-        <v>6.504562224609998</v>
+        <v>5.434079320741205</v>
       </c>
     </row>
     <row r="226">
@@ -3524,13 +3524,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C226" t="n">
-        <v>65.30351972484888</v>
+        <v>41.07157213683325</v>
       </c>
       <c r="D226" t="n">
-        <v>25.30351972484888</v>
+        <v>11.07157213683325</v>
       </c>
     </row>
     <row r="227">
@@ -3541,10 +3541,10 @@
         <v>50</v>
       </c>
       <c r="C227" t="n">
-        <v>38.31073129113818</v>
+        <v>54.89812680448606</v>
       </c>
       <c r="D227" t="n">
-        <v>11.68926870886182</v>
+        <v>4.898126804486061</v>
       </c>
     </row>
     <row r="228">
@@ -3552,13 +3552,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C228" t="n">
-        <v>51.55325691309916</v>
+        <v>53.81504825987723</v>
       </c>
       <c r="D228" t="n">
-        <v>1.553256913099162</v>
+        <v>8.18495174012277</v>
       </c>
     </row>
     <row r="229">
@@ -3566,13 +3566,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C229" t="n">
-        <v>25.84794529319224</v>
+        <v>55.72904570282316</v>
       </c>
       <c r="D229" t="n">
-        <v>5.84794529319224</v>
+        <v>6.270954297176836</v>
       </c>
     </row>
     <row r="230">
@@ -3580,13 +3580,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C230" t="n">
-        <v>76.39700573950657</v>
+        <v>47.59487889809019</v>
       </c>
       <c r="D230" t="n">
-        <v>1.397005739506568</v>
+        <v>2.405121101909813</v>
       </c>
     </row>
     <row r="231">
@@ -3594,13 +3594,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C231" t="n">
-        <v>57.4576397182574</v>
+        <v>43.87299980364241</v>
       </c>
       <c r="D231" t="n">
-        <v>7.457639718257404</v>
+        <v>3.872999803642408</v>
       </c>
     </row>
     <row r="232">
@@ -3608,13 +3608,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C232" t="n">
-        <v>56.64117040299828</v>
+        <v>46.32580416249024</v>
       </c>
       <c r="D232" t="n">
-        <v>5.358829597001723</v>
+        <v>16.32580416249024</v>
       </c>
     </row>
     <row r="233">
@@ -3622,13 +3622,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C233" t="n">
-        <v>42.29408539095004</v>
+        <v>26.89536535114131</v>
       </c>
       <c r="D233" t="n">
-        <v>7.705914609049962</v>
+        <v>6.895365351141308</v>
       </c>
     </row>
     <row r="234">
@@ -3639,10 +3639,10 @@
         <v>50</v>
       </c>
       <c r="C234" t="n">
-        <v>53.74233448068532</v>
+        <v>53.75720010569672</v>
       </c>
       <c r="D234" t="n">
-        <v>3.742334480685322</v>
+        <v>3.757200105696718</v>
       </c>
     </row>
     <row r="235">
@@ -3650,13 +3650,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C235" t="n">
-        <v>31.44626212779396</v>
+        <v>48.54881600971648</v>
       </c>
       <c r="D235" t="n">
-        <v>18.55373787220604</v>
+        <v>8.548816009716475</v>
       </c>
     </row>
     <row r="236">
@@ -3664,13 +3664,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C236" t="n">
-        <v>21.39353091729808</v>
+        <v>66.54505881225523</v>
       </c>
       <c r="D236" t="n">
-        <v>1.393530917298079</v>
+        <v>8.454941187744765</v>
       </c>
     </row>
     <row r="237">
@@ -3678,13 +3678,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C237" t="n">
-        <v>75.55658732879502</v>
+        <v>44.53027560815879</v>
       </c>
       <c r="D237" t="n">
-        <v>0.5565873287950183</v>
+        <v>17.46972439184121</v>
       </c>
     </row>
     <row r="238">
@@ -3692,13 +3692,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C238" t="n">
-        <v>22.02393642447092</v>
+        <v>58.957862678895</v>
       </c>
       <c r="D238" t="n">
-        <v>17.97606357552908</v>
+        <v>16.042137321105</v>
       </c>
     </row>
     <row r="239">
@@ -3706,13 +3706,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C239" t="n">
-        <v>37.18530519587553</v>
+        <v>48.63848002250762</v>
       </c>
       <c r="D239" t="n">
-        <v>2.814694804124471</v>
+        <v>1.361519977492378</v>
       </c>
     </row>
     <row r="240">
@@ -3720,13 +3720,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C240" t="n">
-        <v>41.4617132338597</v>
+        <v>37.40749848591999</v>
       </c>
       <c r="D240" t="n">
-        <v>11.4617132338597</v>
+        <v>12.59250151408001</v>
       </c>
     </row>
     <row r="241">
@@ -3734,13 +3734,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C241" t="n">
-        <v>39.43080535584443</v>
+        <v>19.51995738372345</v>
       </c>
       <c r="D241" t="n">
-        <v>9.430805355844427</v>
+        <v>0.4800426162765454</v>
       </c>
     </row>
     <row r="242">
@@ -3748,13 +3748,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C242" t="n">
-        <v>36.97823311371599</v>
+        <v>4.837484157103844</v>
       </c>
       <c r="D242" t="n">
-        <v>25.02176688628401</v>
+        <v>5.162515842896156</v>
       </c>
     </row>
     <row r="243">
@@ -3762,13 +3762,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C243" t="n">
-        <v>5.903544559133749</v>
+        <v>41.46645967653744</v>
       </c>
       <c r="D243" t="n">
-        <v>4.096455440866251</v>
+        <v>8.53354032346256</v>
       </c>
     </row>
     <row r="244">
@@ -3776,13 +3776,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C244" t="n">
-        <v>13.73409747793218</v>
+        <v>34.0249333531013</v>
       </c>
       <c r="D244" t="n">
-        <v>6.265902522067819</v>
+        <v>4.024933353101297</v>
       </c>
     </row>
     <row r="245">
@@ -3790,13 +3790,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C245" t="n">
-        <v>64.87077663931049</v>
+        <v>40.35157049143868</v>
       </c>
       <c r="D245" t="n">
-        <v>10.12922336068951</v>
+        <v>9.648429508561321</v>
       </c>
     </row>
     <row r="246">
@@ -3804,13 +3804,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C246" t="n">
-        <v>3.15633915887834</v>
+        <v>23.03130725982205</v>
       </c>
       <c r="D246" t="n">
-        <v>3.15633915887834</v>
+        <v>3.031307259822047</v>
       </c>
     </row>
     <row r="247">
@@ -3818,13 +3818,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C247" t="n">
-        <v>38.0255290168815</v>
+        <v>75.99369672755903</v>
       </c>
       <c r="D247" t="n">
-        <v>8.025529016881499</v>
+        <v>0.9936967275590263</v>
       </c>
     </row>
     <row r="248">
@@ -3832,13 +3832,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C248" t="n">
-        <v>39.4462743633425</v>
+        <v>20.14151066196494</v>
       </c>
       <c r="D248" t="n">
-        <v>9.446274363342496</v>
+        <v>0.14151066196494</v>
       </c>
     </row>
     <row r="249">
@@ -3846,13 +3846,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C249" t="n">
-        <v>43.03650537494525</v>
+        <v>74.67534555597115</v>
       </c>
       <c r="D249" t="n">
-        <v>13.03650537494525</v>
+        <v>0.3246544440288517</v>
       </c>
     </row>
     <row r="250">
@@ -3860,13 +3860,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="C250" t="n">
-        <v>60.47314680760945</v>
+        <v>17.4685737582754</v>
       </c>
       <c r="D250" t="n">
-        <v>14.52685319239055</v>
+        <v>7.468573758275404</v>
       </c>
     </row>
     <row r="251">
@@ -3874,13 +3874,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C251" t="n">
-        <v>29.02938469384737</v>
+        <v>78.28276220860248</v>
       </c>
       <c r="D251" t="n">
-        <v>9.029384693847369</v>
+        <v>3.282762208602477</v>
       </c>
     </row>
     <row r="252">
@@ -3888,13 +3888,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C252" t="n">
-        <v>23.92110484399227</v>
+        <v>56.20072909416608</v>
       </c>
       <c r="D252" t="n">
-        <v>3.921104843992275</v>
+        <v>16.20072909416608</v>
       </c>
     </row>
     <row r="253">
@@ -3902,13 +3902,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C253" t="n">
-        <v>37.9624931117426</v>
+        <v>38.98521362793105</v>
       </c>
       <c r="D253" t="n">
-        <v>2.037506888257397</v>
+        <v>8.985213627931053</v>
       </c>
     </row>
     <row r="254">
@@ -3916,13 +3916,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C254" t="n">
-        <v>54.49254650315525</v>
+        <v>3.340721588274864</v>
       </c>
       <c r="D254" t="n">
-        <v>4.492546503155253</v>
+        <v>6.659278411725136</v>
       </c>
     </row>
     <row r="255">
@@ -3933,10 +3933,10 @@
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>3.086321165708643</v>
+        <v>3.064173643660979</v>
       </c>
       <c r="D255" t="n">
-        <v>3.086321165708643</v>
+        <v>3.064173643660979</v>
       </c>
     </row>
     <row r="256">
@@ -3944,13 +3944,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C256" t="n">
-        <v>57.72286116111835</v>
+        <v>57.75286720021211</v>
       </c>
       <c r="D256" t="n">
-        <v>7.722861161118352</v>
+        <v>17.24713279978789</v>
       </c>
     </row>
     <row r="257">
@@ -3958,13 +3958,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C257" t="n">
-        <v>4.104119154721202</v>
+        <v>27.94728243539464</v>
       </c>
       <c r="D257" t="n">
-        <v>4.104119154721202</v>
+        <v>7.947282435394637</v>
       </c>
     </row>
     <row r="258">
@@ -3972,13 +3972,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C258" t="n">
-        <v>62.53672529684925</v>
+        <v>24.5882044152594</v>
       </c>
       <c r="D258" t="n">
-        <v>12.46327470315075</v>
+        <v>4.588204415259405</v>
       </c>
     </row>
     <row r="259">
@@ -3986,13 +3986,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C259" t="n">
-        <v>43.83644833339167</v>
+        <v>44.90917253725356</v>
       </c>
       <c r="D259" t="n">
-        <v>31.16355166660833</v>
+        <v>14.90917253725356</v>
       </c>
     </row>
     <row r="260">
@@ -4000,13 +4000,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C260" t="n">
-        <v>18.30139741161361</v>
+        <v>46.65242009479625</v>
       </c>
       <c r="D260" t="n">
-        <v>1.698602588386393</v>
+        <v>3.347579905203752</v>
       </c>
     </row>
     <row r="261">
@@ -4014,13 +4014,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C261" t="n">
-        <v>24.98597785867097</v>
+        <v>44.69466139742774</v>
       </c>
       <c r="D261" t="n">
-        <v>4.985977858670971</v>
+        <v>17.30533860257226</v>
       </c>
     </row>
     <row r="262">
@@ -4028,13 +4028,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C262" t="n">
-        <v>69.43118593963234</v>
+        <v>41.62543395206027</v>
       </c>
       <c r="D262" t="n">
-        <v>5.568814060367657</v>
+        <v>11.62543395206027</v>
       </c>
     </row>
     <row r="263">
@@ -4042,13 +4042,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C263" t="n">
-        <v>24.20561216550246</v>
+        <v>38.22610720280201</v>
       </c>
       <c r="D263" t="n">
-        <v>14.20561216550246</v>
+        <v>1.773892797197988</v>
       </c>
     </row>
     <row r="264">
@@ -4056,13 +4056,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C264" t="n">
-        <v>2.822945612363276</v>
+        <v>55.44550602938107</v>
       </c>
       <c r="D264" t="n">
-        <v>2.822945612363276</v>
+        <v>5.445506029381072</v>
       </c>
     </row>
     <row r="265">
@@ -4070,13 +4070,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C265" t="n">
-        <v>39.06414318273487</v>
+        <v>65.10636104328249</v>
       </c>
       <c r="D265" t="n">
-        <v>9.064143182734867</v>
+        <v>3.10636104328249</v>
       </c>
     </row>
     <row r="266">
@@ -4084,13 +4084,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C266" t="n">
-        <v>42.07435988287538</v>
+        <v>44.84609090315701</v>
       </c>
       <c r="D266" t="n">
-        <v>19.92564011712462</v>
+        <v>4.846090903157013</v>
       </c>
     </row>
     <row r="267">
@@ -4098,13 +4098,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C267" t="n">
-        <v>25.37958125408277</v>
+        <v>44.58454147382488</v>
       </c>
       <c r="D267" t="n">
-        <v>15.37958125408277</v>
+        <v>14.58454147382488</v>
       </c>
     </row>
     <row r="268">
@@ -4112,13 +4112,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C268" t="n">
-        <v>31.76753367793284</v>
+        <v>13.70870350593657</v>
       </c>
       <c r="D268" t="n">
-        <v>11.76753367793284</v>
+        <v>3.708703505936569</v>
       </c>
     </row>
     <row r="269">
@@ -4126,13 +4126,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C269" t="n">
-        <v>4.078862949778802</v>
+        <v>18.75301141987309</v>
       </c>
       <c r="D269" t="n">
-        <v>5.921137050221198</v>
+        <v>1.24698858012691</v>
       </c>
     </row>
     <row r="270">
@@ -4140,13 +4140,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C270" t="n">
-        <v>57.99395797836006</v>
+        <v>26.31159422532763</v>
       </c>
       <c r="D270" t="n">
-        <v>4.006042021639942</v>
+        <v>16.31159422532763</v>
       </c>
     </row>
     <row r="271">
@@ -4154,13 +4154,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C271" t="n">
-        <v>49.3936414078199</v>
+        <v>46.8609008454006</v>
       </c>
       <c r="D271" t="n">
-        <v>0.6063585921801007</v>
+        <v>15.1390991545994</v>
       </c>
     </row>
     <row r="272">
@@ -4168,13 +4168,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>45.24952592626936</v>
+        <v>16.18499327839453</v>
       </c>
       <c r="D272" t="n">
-        <v>5.249525926269364</v>
+        <v>16.18499327839453</v>
       </c>
     </row>
     <row r="273">
@@ -4185,10 +4185,10 @@
         <v>75</v>
       </c>
       <c r="C273" t="n">
-        <v>62.71261950265237</v>
+        <v>73.67448496125753</v>
       </c>
       <c r="D273" t="n">
-        <v>12.28738049734763</v>
+        <v>1.325515038742466</v>
       </c>
     </row>
     <row r="274">
@@ -4196,13 +4196,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C274" t="n">
-        <v>0.8331357499424517</v>
+        <v>54.41044724183716</v>
       </c>
       <c r="D274" t="n">
-        <v>0.8331357499424517</v>
+        <v>7.589552758162839</v>
       </c>
     </row>
     <row r="275">
@@ -4210,13 +4210,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>24.76984579624317</v>
+        <v>1.958438427045352</v>
       </c>
       <c r="D275" t="n">
-        <v>14.76984579624317</v>
+        <v>1.958438427045352</v>
       </c>
     </row>
     <row r="276">
@@ -4227,10 +4227,10 @@
         <v>62</v>
       </c>
       <c r="C276" t="n">
-        <v>44.19190990962548</v>
+        <v>59.49813288514751</v>
       </c>
       <c r="D276" t="n">
-        <v>17.80809009037452</v>
+        <v>2.501867114852494</v>
       </c>
     </row>
     <row r="277">
@@ -4238,13 +4238,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C277" t="n">
-        <v>36.88986384314634</v>
+        <v>41.10272010271866</v>
       </c>
       <c r="D277" t="n">
-        <v>3.110136156853656</v>
+        <v>8.897279897281344</v>
       </c>
     </row>
     <row r="278">
@@ -4252,13 +4252,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C278" t="n">
-        <v>49.83459658678162</v>
+        <v>43.84955669635002</v>
       </c>
       <c r="D278" t="n">
-        <v>19.83459658678162</v>
+        <v>6.150443303649979</v>
       </c>
     </row>
     <row r="279">
@@ -4266,13 +4266,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C279" t="n">
-        <v>57.14497806847193</v>
+        <v>65.91285674419692</v>
       </c>
       <c r="D279" t="n">
-        <v>7.144978068471929</v>
+        <v>9.087143255803085</v>
       </c>
     </row>
     <row r="280">
@@ -4280,13 +4280,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C280" t="n">
-        <v>33.85613556613055</v>
+        <v>59.98482540914623</v>
       </c>
       <c r="D280" t="n">
-        <v>3.856135566130554</v>
+        <v>15.01517459085377</v>
       </c>
     </row>
     <row r="281">
@@ -4294,13 +4294,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C281" t="n">
-        <v>15.26839387960781</v>
+        <v>41.99218247079742</v>
       </c>
       <c r="D281" t="n">
-        <v>5.268393879607807</v>
+        <v>11.99218247079742</v>
       </c>
     </row>
     <row r="282">
@@ -4308,13 +4308,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C282" t="n">
-        <v>2.651225516121663</v>
+        <v>42.55208759026445</v>
       </c>
       <c r="D282" t="n">
-        <v>7.348774483878337</v>
+        <v>12.55208759026445</v>
       </c>
     </row>
     <row r="283">
@@ -4322,13 +4322,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C283" t="n">
-        <v>49.66975348634892</v>
+        <v>31.36390685570583</v>
       </c>
       <c r="D283" t="n">
-        <v>9.669753486348917</v>
+        <v>11.36390685570583</v>
       </c>
     </row>
     <row r="284">
@@ -4336,13 +4336,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C284" t="n">
-        <v>54.80239819615027</v>
+        <v>42.99713682953424</v>
       </c>
       <c r="D284" t="n">
-        <v>4.802398196150271</v>
+        <v>12.99713682953424</v>
       </c>
     </row>
     <row r="285">
@@ -4350,13 +4350,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C285" t="n">
-        <v>35.35960436488622</v>
+        <v>55.09382764419229</v>
       </c>
       <c r="D285" t="n">
-        <v>5.359604364886223</v>
+        <v>6.906172355807712</v>
       </c>
     </row>
     <row r="286">
@@ -4364,13 +4364,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C286" t="n">
-        <v>53.37295005409359</v>
+        <v>21.34606833886057</v>
       </c>
       <c r="D286" t="n">
-        <v>8.627049945906414</v>
+        <v>11.34606833886057</v>
       </c>
     </row>
     <row r="287">
@@ -4378,13 +4378,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C287" t="n">
-        <v>3.16735117936813</v>
+        <v>82.58084564626023</v>
       </c>
       <c r="D287" t="n">
-        <v>3.16735117936813</v>
+        <v>7.580845646260229</v>
       </c>
     </row>
     <row r="288">
@@ -4392,13 +4392,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C288" t="n">
-        <v>0.5133242616939242</v>
+        <v>69.18210461728926</v>
       </c>
       <c r="D288" t="n">
-        <v>0.5133242616939242</v>
+        <v>19.18210461728926</v>
       </c>
     </row>
     <row r="289">
@@ -4406,13 +4406,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C289" t="n">
-        <v>11.75358136687726</v>
+        <v>51.05775900100671</v>
       </c>
       <c r="D289" t="n">
-        <v>1.753581366877256</v>
+        <v>10.94224099899329</v>
       </c>
     </row>
     <row r="290">
@@ -4420,13 +4420,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C290" t="n">
-        <v>52.73969760651919</v>
+        <v>11.45444375465089</v>
       </c>
       <c r="D290" t="n">
-        <v>2.739697606519194</v>
+        <v>8.545556245349109</v>
       </c>
     </row>
     <row r="291">
@@ -4434,13 +4434,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C291" t="n">
-        <v>57.80874692777247</v>
+        <v>52.3426853774659</v>
       </c>
       <c r="D291" t="n">
-        <v>7.808746927772468</v>
+        <v>22.3426853774659</v>
       </c>
     </row>
     <row r="292">
@@ -4448,13 +4448,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C292" t="n">
-        <v>55.57179763079041</v>
+        <v>38.39570811477785</v>
       </c>
       <c r="D292" t="n">
-        <v>5.571797630790414</v>
+        <v>8.395708114777847</v>
       </c>
     </row>
     <row r="293">
@@ -4462,13 +4462,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C293" t="n">
-        <v>47.75039716864033</v>
+        <v>51.23775736526648</v>
       </c>
       <c r="D293" t="n">
-        <v>17.75039716864033</v>
+        <v>1.237757365266475</v>
       </c>
     </row>
     <row r="294">
@@ -4476,13 +4476,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C294" t="n">
-        <v>44.52974275369801</v>
+        <v>35.18462610929134</v>
       </c>
       <c r="D294" t="n">
-        <v>5.470257246301991</v>
+        <v>5.184626109291337</v>
       </c>
     </row>
     <row r="295">
@@ -4493,10 +4493,10 @@
         <v>50</v>
       </c>
       <c r="C295" t="n">
-        <v>59.55802013214502</v>
+        <v>42.82029831146118</v>
       </c>
       <c r="D295" t="n">
-        <v>9.558020132145018</v>
+        <v>7.17970168853882</v>
       </c>
     </row>
     <row r="296">
@@ -4504,13 +4504,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C296" t="n">
-        <v>33.3594991292305</v>
+        <v>78.39586700093882</v>
       </c>
       <c r="D296" t="n">
-        <v>16.6405008707695</v>
+        <v>3.395867000938821</v>
       </c>
     </row>
     <row r="297">
@@ -4518,13 +4518,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C297" t="n">
-        <v>14.62286084663176</v>
+        <v>66.17990752344619</v>
       </c>
       <c r="D297" t="n">
-        <v>4.62286084663176</v>
+        <v>16.17990752344619</v>
       </c>
     </row>
     <row r="298">
@@ -4532,13 +4532,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C298" t="n">
-        <v>68.00875431216468</v>
+        <v>2.735944408784194</v>
       </c>
       <c r="D298" t="n">
-        <v>6.008754312164683</v>
+        <v>7.264055591215806</v>
       </c>
     </row>
     <row r="299">
@@ -4546,13 +4546,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C299" t="n">
-        <v>22.2416771282851</v>
+        <v>37.19367215095644</v>
       </c>
       <c r="D299" t="n">
-        <v>2.241677128285101</v>
+        <v>24.80632784904356</v>
       </c>
     </row>
     <row r="300">
@@ -4560,13 +4560,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C300" t="n">
-        <v>66.95036485643203</v>
+        <v>41.79622988471711</v>
       </c>
       <c r="D300" t="n">
-        <v>4.950364856432032</v>
+        <v>11.79622988471711</v>
       </c>
     </row>
     <row r="301">
@@ -4574,13 +4574,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C301" t="n">
-        <v>35.37579751610745</v>
+        <v>63.99571809159488</v>
       </c>
       <c r="D301" t="n">
-        <v>5.375797516107454</v>
+        <v>11.00428190840512</v>
       </c>
     </row>
     <row r="302">
@@ -4588,13 +4588,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C302" t="n">
-        <v>53.90272527079757</v>
+        <v>44.46945605406454</v>
       </c>
       <c r="D302" t="n">
-        <v>8.097274729202432</v>
+        <v>4.469456054064537</v>
       </c>
     </row>
     <row r="303">
@@ -4602,13 +4602,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C303" t="n">
-        <v>64.62026057023638</v>
+        <v>44.1922865785193</v>
       </c>
       <c r="D303" t="n">
-        <v>10.37973942976362</v>
+        <v>17.8077134214807</v>
       </c>
     </row>
     <row r="304">
@@ -4616,13 +4616,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>38.30659024612924</v>
+        <v>-1.774702956110353</v>
       </c>
       <c r="D304" t="n">
-        <v>36.69340975387076</v>
+        <v>1.774702956110353</v>
       </c>
     </row>
     <row r="305">
@@ -4630,13 +4630,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C305" t="n">
-        <v>34.18032194820262</v>
+        <v>79.80494208344552</v>
       </c>
       <c r="D305" t="n">
-        <v>14.18032194820262</v>
+        <v>4.804942083445525</v>
       </c>
     </row>
     <row r="306">
@@ -4644,13 +4644,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C306" t="n">
-        <v>14.80607638674575</v>
+        <v>20.15771947878821</v>
       </c>
       <c r="D306" t="n">
-        <v>5.193923613254249</v>
+        <v>10.15771947878821</v>
       </c>
     </row>
     <row r="307">
@@ -4658,13 +4658,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C307" t="n">
-        <v>23.76063978043352</v>
+        <v>41.28487846656139</v>
       </c>
       <c r="D307" t="n">
-        <v>3.760639780433522</v>
+        <v>11.28487846656139</v>
       </c>
     </row>
     <row r="308">
@@ -4672,13 +4672,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C308" t="n">
-        <v>36.94850155616859</v>
+        <v>63.60384489646717</v>
       </c>
       <c r="D308" t="n">
-        <v>6.948501556168594</v>
+        <v>11.39615510353283</v>
       </c>
     </row>
     <row r="309">
@@ -4686,13 +4686,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C309" t="n">
-        <v>17.07586692080613</v>
+        <v>37.58921775801317</v>
       </c>
       <c r="D309" t="n">
-        <v>7.075866920806128</v>
+        <v>24.41078224198683</v>
       </c>
     </row>
     <row r="310">
@@ -4700,13 +4700,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C310" t="n">
-        <v>49.61477308064681</v>
+        <v>54.6790131991681</v>
       </c>
       <c r="D310" t="n">
-        <v>0.3852269193531939</v>
+        <v>7.320986800831896</v>
       </c>
     </row>
     <row r="311">
@@ -4714,13 +4714,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C311" t="n">
-        <v>47.00015629390157</v>
+        <v>31.47521473810165</v>
       </c>
       <c r="D311" t="n">
-        <v>2.999843706098432</v>
+        <v>11.47521473810165</v>
       </c>
     </row>
     <row r="312">
@@ -4731,10 +4731,10 @@
         <v>30</v>
       </c>
       <c r="C312" t="n">
-        <v>34.61787061260615</v>
+        <v>49.78748150011151</v>
       </c>
       <c r="D312" t="n">
-        <v>4.617870612606147</v>
+        <v>19.78748150011151</v>
       </c>
     </row>
     <row r="313">
@@ -4742,13 +4742,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C313" t="n">
-        <v>33.90781361961945</v>
+        <v>18.75656174128307</v>
       </c>
       <c r="D313" t="n">
-        <v>6.092186380380554</v>
+        <v>8.756561741283068</v>
       </c>
     </row>
     <row r="314">
@@ -4756,13 +4756,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>34.86689514046556</v>
+        <v>1.463356204048826</v>
       </c>
       <c r="D314" t="n">
-        <v>5.133104859534441</v>
+        <v>1.463356204048826</v>
       </c>
     </row>
     <row r="315">
@@ -4770,13 +4770,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C315" t="n">
-        <v>81.1948844447777</v>
+        <v>43.35453952085211</v>
       </c>
       <c r="D315" t="n">
-        <v>6.194884444777699</v>
+        <v>3.354539520852107</v>
       </c>
     </row>
     <row r="316">
@@ -4784,13 +4784,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C316" t="n">
-        <v>48.29740801059589</v>
+        <v>33.96908580042133</v>
       </c>
       <c r="D316" t="n">
-        <v>13.70259198940411</v>
+        <v>3.969085800421325</v>
       </c>
     </row>
     <row r="317">
@@ -4798,13 +4798,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C317" t="n">
-        <v>9.736511177754444</v>
+        <v>20.44523801491253</v>
       </c>
       <c r="D317" t="n">
-        <v>10.26348882224556</v>
+        <v>10.44523801491253</v>
       </c>
     </row>
     <row r="318">
@@ -4812,13 +4812,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C318" t="n">
-        <v>47.18529474557062</v>
+        <v>45.14971850934486</v>
       </c>
       <c r="D318" t="n">
-        <v>7.185294745570623</v>
+        <v>4.850281490655135</v>
       </c>
     </row>
     <row r="319">
@@ -4826,13 +4826,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C319" t="n">
-        <v>3.289507139420733</v>
+        <v>43.21657640566833</v>
       </c>
       <c r="D319" t="n">
-        <v>3.289507139420733</v>
+        <v>31.78342359433167</v>
       </c>
     </row>
     <row r="320">
@@ -4840,13 +4840,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C320" t="n">
-        <v>50.6987285785716</v>
+        <v>53.78852377633498</v>
       </c>
       <c r="D320" t="n">
-        <v>0.6987285785715969</v>
+        <v>8.211476223665017</v>
       </c>
     </row>
     <row r="321">
@@ -4854,13 +4854,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C321" t="n">
-        <v>8.739379196259812</v>
+        <v>32.60543282132376</v>
       </c>
       <c r="D321" t="n">
-        <v>1.260620803740188</v>
+        <v>17.39456717867624</v>
       </c>
     </row>
     <row r="322">
@@ -4868,13 +4868,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C322" t="n">
-        <v>40.50747797072509</v>
+        <v>36.48469226491204</v>
       </c>
       <c r="D322" t="n">
-        <v>0.5074779707250912</v>
+        <v>13.51530773508796</v>
       </c>
     </row>
     <row r="323">
@@ -4882,13 +4882,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C323" t="n">
-        <v>1.952658349126299</v>
+        <v>14.5362967856568</v>
       </c>
       <c r="D323" t="n">
-        <v>1.952658349126299</v>
+        <v>4.536296785656802</v>
       </c>
     </row>
     <row r="324">
@@ -4896,13 +4896,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C324" t="n">
-        <v>33.89684742244604</v>
+        <v>48.12009054421777</v>
       </c>
       <c r="D324" t="n">
-        <v>6.103152577553956</v>
+        <v>26.87990945578223</v>
       </c>
     </row>
     <row r="325">
@@ -4910,13 +4910,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C325" t="n">
-        <v>41.41315827025944</v>
+        <v>20.20703047344172</v>
       </c>
       <c r="D325" t="n">
-        <v>8.586841729740563</v>
+        <v>0.2070304734417157</v>
       </c>
     </row>
     <row r="326">
@@ -4924,13 +4924,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C326" t="n">
-        <v>44.34283865930509</v>
+        <v>67.38520134093544</v>
       </c>
       <c r="D326" t="n">
-        <v>5.657161340694906</v>
+        <v>5.385201340935438</v>
       </c>
     </row>
     <row r="327">
@@ -4938,13 +4938,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C327" t="n">
-        <v>17.06825563577332</v>
+        <v>0.05283078539732389</v>
       </c>
       <c r="D327" t="n">
-        <v>2.931744364226681</v>
+        <v>0.05283078539732389</v>
       </c>
     </row>
     <row r="328">
@@ -4952,13 +4952,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C328" t="n">
-        <v>59.64628694302331</v>
+        <v>31.21927864009779</v>
       </c>
       <c r="D328" t="n">
-        <v>15.35371305697669</v>
+        <v>1.219278640097791</v>
       </c>
     </row>
     <row r="329">
@@ -4969,10 +4969,10 @@
         <v>10</v>
       </c>
       <c r="C329" t="n">
-        <v>9.015131515582112</v>
+        <v>12.98423469761523</v>
       </c>
       <c r="D329" t="n">
-        <v>0.9848684844178877</v>
+        <v>2.984234697615229</v>
       </c>
     </row>
     <row r="330">
@@ -4983,10 +4983,10 @@
         <v>50</v>
       </c>
       <c r="C330" t="n">
-        <v>36.6272655124404</v>
+        <v>45.36331701694698</v>
       </c>
       <c r="D330" t="n">
-        <v>13.3727344875596</v>
+        <v>4.636682983053021</v>
       </c>
     </row>
     <row r="331">
@@ -4997,10 +4997,10 @@
         <v>62</v>
       </c>
       <c r="C331" t="n">
-        <v>59.57727529844269</v>
+        <v>57.27494143525507</v>
       </c>
       <c r="D331" t="n">
-        <v>2.422724701557314</v>
+        <v>4.725058564744934</v>
       </c>
     </row>
     <row r="332">
@@ -5008,13 +5008,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C332" t="n">
-        <v>34.11469524730256</v>
+        <v>79.41631943956114</v>
       </c>
       <c r="D332" t="n">
-        <v>4.114695247302556</v>
+        <v>4.416319439561136</v>
       </c>
     </row>
     <row r="333">
@@ -5022,13 +5022,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C333" t="n">
-        <v>-0.464039693315776</v>
+        <v>56.92052237031672</v>
       </c>
       <c r="D333" t="n">
-        <v>10.46403969331578</v>
+        <v>5.079477629683275</v>
       </c>
     </row>
     <row r="334">
@@ -5039,10 +5039,10 @@
         <v>75</v>
       </c>
       <c r="C334" t="n">
-        <v>63.40987922834294</v>
+        <v>81.77834123049143</v>
       </c>
       <c r="D334" t="n">
-        <v>11.59012077165706</v>
+        <v>6.778341230491435</v>
       </c>
     </row>
     <row r="335">
@@ -5050,13 +5050,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C335" t="n">
-        <v>37.31580217005277</v>
+        <v>51.93019916608178</v>
       </c>
       <c r="D335" t="n">
-        <v>7.31580217005277</v>
+        <v>1.930199166081778</v>
       </c>
     </row>
     <row r="336">
@@ -5064,13 +5064,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C336" t="n">
-        <v>9.607731731567265</v>
+        <v>19.71212818066333</v>
       </c>
       <c r="D336" t="n">
-        <v>9.607731731567265</v>
+        <v>9.712128180663328</v>
       </c>
     </row>
     <row r="337">
@@ -5081,10 +5081,10 @@
         <v>20</v>
       </c>
       <c r="C337" t="n">
-        <v>33.29752072794387</v>
+        <v>34.45813258521476</v>
       </c>
       <c r="D337" t="n">
-        <v>13.29752072794387</v>
+        <v>14.45813258521476</v>
       </c>
     </row>
     <row r="338">
@@ -5092,13 +5092,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C338" t="n">
-        <v>40.18020198093151</v>
+        <v>37.71302355912766</v>
       </c>
       <c r="D338" t="n">
-        <v>0.1802019809315141</v>
+        <v>12.28697644087234</v>
       </c>
     </row>
     <row r="339">
@@ -5109,10 +5109,10 @@
         <v>75</v>
       </c>
       <c r="C339" t="n">
-        <v>80.18577694507098</v>
+        <v>51.00074992658817</v>
       </c>
       <c r="D339" t="n">
-        <v>5.185776945070984</v>
+        <v>23.99925007341183</v>
       </c>
     </row>
     <row r="340">
@@ -5123,10 +5123,10 @@
         <v>50</v>
       </c>
       <c r="C340" t="n">
-        <v>46.01146759920894</v>
+        <v>55.15938731350222</v>
       </c>
       <c r="D340" t="n">
-        <v>3.988532400791058</v>
+        <v>5.159387313502215</v>
       </c>
     </row>
     <row r="341">
@@ -5137,10 +5137,10 @@
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>7.056616687762721</v>
+        <v>-4.258757604146592</v>
       </c>
       <c r="D341" t="n">
-        <v>7.056616687762721</v>
+        <v>4.258757604146592</v>
       </c>
     </row>
     <row r="342">
@@ -5151,10 +5151,10 @@
         <v>75</v>
       </c>
       <c r="C342" t="n">
-        <v>64.64675757087164</v>
+        <v>59.48041981022006</v>
       </c>
       <c r="D342" t="n">
-        <v>10.35324242912836</v>
+        <v>15.51958018977994</v>
       </c>
     </row>
     <row r="343">
@@ -5162,13 +5162,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>19.80598052102242</v>
+        <v>2.806480650491983</v>
       </c>
       <c r="D343" t="n">
-        <v>9.80598052102242</v>
+        <v>2.806480650491983</v>
       </c>
     </row>
     <row r="344">
@@ -5176,13 +5176,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C344" t="n">
-        <v>38.59575166114776</v>
+        <v>20.35594411132853</v>
       </c>
       <c r="D344" t="n">
-        <v>8.595751661147759</v>
+        <v>10.35594411132853</v>
       </c>
     </row>
     <row r="345">
@@ -5190,13 +5190,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C345" t="n">
-        <v>13.465936121592</v>
+        <v>36.46717189669506</v>
       </c>
       <c r="D345" t="n">
-        <v>3.465936121592001</v>
+        <v>13.53282810330494</v>
       </c>
     </row>
     <row r="346">
@@ -5204,13 +5204,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C346" t="n">
-        <v>54.30663475166093</v>
+        <v>41.03730323146634</v>
       </c>
       <c r="D346" t="n">
-        <v>4.30663475166093</v>
+        <v>20.96269676853366</v>
       </c>
     </row>
     <row r="347">
@@ -5218,13 +5218,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C347" t="n">
-        <v>3.180299870014306</v>
+        <v>57.9998789563928</v>
       </c>
       <c r="D347" t="n">
-        <v>3.180299870014306</v>
+        <v>7.999878956392799</v>
       </c>
     </row>
     <row r="348">
@@ -5235,10 +5235,10 @@
         <v>50</v>
       </c>
       <c r="C348" t="n">
-        <v>57.41776885547856</v>
+        <v>51.48037688670158</v>
       </c>
       <c r="D348" t="n">
-        <v>7.417768855478563</v>
+        <v>1.480376886701585</v>
       </c>
     </row>
     <row r="349">
@@ -5246,13 +5246,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C349" t="n">
-        <v>48.75064940142193</v>
+        <v>43.20502430852946</v>
       </c>
       <c r="D349" t="n">
-        <v>1.249350598578069</v>
+        <v>3.20502430852946</v>
       </c>
     </row>
     <row r="350">
@@ -5260,13 +5260,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C350" t="n">
-        <v>41.35103553921827</v>
+        <v>56.56388326280083</v>
       </c>
       <c r="D350" t="n">
-        <v>8.648964460781734</v>
+        <v>5.436116737199171</v>
       </c>
     </row>
     <row r="351">
@@ -5274,13 +5274,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C351" t="n">
-        <v>31.06794714485011</v>
+        <v>76.55910648225131</v>
       </c>
       <c r="D351" t="n">
-        <v>11.06794714485011</v>
+        <v>1.559106482251309</v>
       </c>
     </row>
     <row r="352">
@@ -5288,13 +5288,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C352" t="n">
-        <v>39.24105504046599</v>
+        <v>21.12342742400057</v>
       </c>
       <c r="D352" t="n">
-        <v>9.241055040465987</v>
+        <v>1.123427424000575</v>
       </c>
     </row>
     <row r="353">
@@ -5305,10 +5305,10 @@
         <v>10</v>
       </c>
       <c r="C353" t="n">
-        <v>11.44235117040486</v>
+        <v>21.02577582443708</v>
       </c>
       <c r="D353" t="n">
-        <v>1.442351170404855</v>
+        <v>11.02577582443708</v>
       </c>
     </row>
     <row r="354">
@@ -5316,13 +5316,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C354" t="n">
-        <v>21.82725526543544</v>
+        <v>72.11860321550706</v>
       </c>
       <c r="D354" t="n">
-        <v>1.82725526543544</v>
+        <v>2.881396784492935</v>
       </c>
     </row>
     <row r="355">
@@ -5330,13 +5330,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C355" t="n">
-        <v>46.71015087856467</v>
+        <v>37.68840546780946</v>
       </c>
       <c r="D355" t="n">
-        <v>6.710150878564669</v>
+        <v>24.31159453219054</v>
       </c>
     </row>
     <row r="356">
@@ -5344,13 +5344,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C356" t="n">
-        <v>39.39915325645092</v>
+        <v>28.81509606632044</v>
       </c>
       <c r="D356" t="n">
-        <v>35.60084674354908</v>
+        <v>8.815096066320439</v>
       </c>
     </row>
     <row r="357">
@@ -5358,13 +5358,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C357" t="n">
-        <v>50.82807006248591</v>
+        <v>29.19857469236261</v>
       </c>
       <c r="D357" t="n">
-        <v>10.82807006248591</v>
+        <v>9.198574692362609</v>
       </c>
     </row>
     <row r="358">
@@ -5372,13 +5372,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C358" t="n">
-        <v>2.501789662585454</v>
+        <v>46.08691467719495</v>
       </c>
       <c r="D358" t="n">
-        <v>2.501789662585454</v>
+        <v>6.086914677194954</v>
       </c>
     </row>
     <row r="359">
@@ -5386,13 +5386,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C359" t="n">
-        <v>2.091682441737256</v>
+        <v>42.62962487365625</v>
       </c>
       <c r="D359" t="n">
-        <v>2.091682441737256</v>
+        <v>19.37037512634375</v>
       </c>
     </row>
     <row r="360">
@@ -5400,13 +5400,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C360" t="n">
-        <v>61.76825123945552</v>
+        <v>41.86328777376601</v>
       </c>
       <c r="D360" t="n">
-        <v>11.76825123945552</v>
+        <v>20.13671222623399</v>
       </c>
     </row>
     <row r="361">
@@ -5414,13 +5414,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C361" t="n">
-        <v>-8.141535778522517</v>
+        <v>30.0764352469401</v>
       </c>
       <c r="D361" t="n">
-        <v>18.14153577852252</v>
+        <v>10.0764352469401</v>
       </c>
     </row>
     <row r="362">
@@ -5428,13 +5428,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C362" t="n">
-        <v>16.69750029681463</v>
+        <v>54.91589408178072</v>
       </c>
       <c r="D362" t="n">
-        <v>6.697500296814631</v>
+        <v>14.91589408178072</v>
       </c>
     </row>
     <row r="363">
@@ -5442,13 +5442,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C363" t="n">
-        <v>56.18480123516222</v>
+        <v>18.37621574042231</v>
       </c>
       <c r="D363" t="n">
-        <v>5.815198764837781</v>
+        <v>1.623784259577686</v>
       </c>
     </row>
     <row r="364">
@@ -5456,13 +5456,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C364" t="n">
-        <v>5.642681690307029</v>
+        <v>24.40909794582269</v>
       </c>
       <c r="D364" t="n">
-        <v>4.357318309692971</v>
+        <v>5.59090205417731</v>
       </c>
     </row>
     <row r="365">
@@ -5473,10 +5473,10 @@
         <v>30</v>
       </c>
       <c r="C365" t="n">
-        <v>23.61691497210771</v>
+        <v>37.04751946847541</v>
       </c>
       <c r="D365" t="n">
-        <v>6.383085027892285</v>
+        <v>7.047519468475407</v>
       </c>
     </row>
     <row r="366">
@@ -5484,13 +5484,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C366" t="n">
-        <v>70.15301994389392</v>
+        <v>45.3230517075915</v>
       </c>
       <c r="D366" t="n">
-        <v>4.846980056106077</v>
+        <v>15.3230517075915</v>
       </c>
     </row>
     <row r="367">
@@ -5498,13 +5498,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C367" t="n">
-        <v>33.02825743028131</v>
+        <v>3.767767012768729</v>
       </c>
       <c r="D367" t="n">
-        <v>6.971742569718693</v>
+        <v>6.232232987231271</v>
       </c>
     </row>
     <row r="368">
@@ -5512,13 +5512,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C368" t="n">
-        <v>36.89582035742471</v>
+        <v>49.78622688588798</v>
       </c>
       <c r="D368" t="n">
-        <v>6.895820357424711</v>
+        <v>0.2137731141120156</v>
       </c>
     </row>
     <row r="369">
@@ -5526,13 +5526,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C369" t="n">
-        <v>32.77632235490858</v>
+        <v>71.19995771482391</v>
       </c>
       <c r="D369" t="n">
-        <v>12.77632235490858</v>
+        <v>3.80004228517609</v>
       </c>
     </row>
     <row r="370">
@@ -5540,13 +5540,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C370" t="n">
-        <v>-2.008624038217135</v>
+        <v>52.72934263388224</v>
       </c>
       <c r="D370" t="n">
-        <v>12.00862403821714</v>
+        <v>12.72934263388224</v>
       </c>
     </row>
     <row r="371">
@@ -5554,13 +5554,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C371" t="n">
-        <v>3.173414763429918</v>
+        <v>41.62049207544442</v>
       </c>
       <c r="D371" t="n">
-        <v>6.826585236570082</v>
+        <v>20.37950792455558</v>
       </c>
     </row>
     <row r="372">
@@ -5568,13 +5568,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C372" t="n">
-        <v>59.06361138626229</v>
+        <v>52.83805469517632</v>
       </c>
       <c r="D372" t="n">
-        <v>15.93638861373771</v>
+        <v>2.838054695176318</v>
       </c>
     </row>
     <row r="373">
@@ -5582,13 +5582,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C373" t="n">
-        <v>6.616470963971175</v>
+        <v>82.6707252717331</v>
       </c>
       <c r="D373" t="n">
-        <v>13.38352903602883</v>
+        <v>7.670725271733104</v>
       </c>
     </row>
     <row r="374">
@@ -5596,13 +5596,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C374" t="n">
-        <v>66.10084876520159</v>
+        <v>32.60827522821509</v>
       </c>
       <c r="D374" t="n">
-        <v>4.10084876520159</v>
+        <v>2.608275228215092</v>
       </c>
     </row>
     <row r="375">
@@ -5610,13 +5610,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C375" t="n">
-        <v>1.414151376784925</v>
+        <v>43.03017132328623</v>
       </c>
       <c r="D375" t="n">
-        <v>1.414151376784925</v>
+        <v>6.969828676713767</v>
       </c>
     </row>
     <row r="376">
@@ -5624,13 +5624,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C376" t="n">
-        <v>49.6453541270241</v>
+        <v>50.58808880260649</v>
       </c>
       <c r="D376" t="n">
-        <v>0.354645872975901</v>
+        <v>10.58808880260649</v>
       </c>
     </row>
     <row r="377">
@@ -5641,10 +5641,10 @@
         <v>20</v>
       </c>
       <c r="C377" t="n">
-        <v>39.18042093051022</v>
+        <v>26.34391127327307</v>
       </c>
       <c r="D377" t="n">
-        <v>19.18042093051022</v>
+        <v>6.343911273273072</v>
       </c>
     </row>
     <row r="378">
@@ -5652,13 +5652,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>64.22047027834296</v>
+        <v>3.970478580990624</v>
       </c>
       <c r="D378" t="n">
-        <v>10.77952972165704</v>
+        <v>3.970478580990624</v>
       </c>
     </row>
     <row r="379">
@@ -5669,10 +5669,10 @@
         <v>62</v>
       </c>
       <c r="C379" t="n">
-        <v>53.10090490593185</v>
+        <v>53.05025820826579</v>
       </c>
       <c r="D379" t="n">
-        <v>8.899095094068151</v>
+        <v>8.949741791734212</v>
       </c>
     </row>
     <row r="380">
@@ -5683,10 +5683,10 @@
         <v>30</v>
       </c>
       <c r="C380" t="n">
-        <v>39.04304793721089</v>
+        <v>39.9323157590839</v>
       </c>
       <c r="D380" t="n">
-        <v>9.043047937210893</v>
+        <v>9.932315759083899</v>
       </c>
     </row>
     <row r="381">
@@ -5694,13 +5694,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C381" t="n">
-        <v>46.21638083840629</v>
+        <v>5.163873750308576</v>
       </c>
       <c r="D381" t="n">
-        <v>26.21638083840629</v>
+        <v>4.836126249691424</v>
       </c>
     </row>
     <row r="382">
@@ -5708,13 +5708,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C382" t="n">
-        <v>79.18982057949026</v>
+        <v>59.1835634059169</v>
       </c>
       <c r="D382" t="n">
-        <v>4.189820579490259</v>
+        <v>2.8164365940831</v>
       </c>
     </row>
     <row r="383">
@@ -5725,10 +5725,10 @@
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>-0.2430036218234886</v>
+        <v>1.229345362804329</v>
       </c>
       <c r="D383" t="n">
-        <v>0.2430036218234886</v>
+        <v>1.229345362804329</v>
       </c>
     </row>
     <row r="384">
@@ -5736,13 +5736,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C384" t="n">
-        <v>47.75053671922531</v>
+        <v>49.90919406202077</v>
       </c>
       <c r="D384" t="n">
-        <v>14.24946328077469</v>
+        <v>9.909194062020767</v>
       </c>
     </row>
     <row r="385">
@@ -5750,13 +5750,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>27.74979294062631</v>
+        <v>2.110458227663997</v>
       </c>
       <c r="D385" t="n">
-        <v>7.749792940626314</v>
+        <v>2.110458227663997</v>
       </c>
     </row>
     <row r="386">
@@ -5764,13 +5764,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C386" t="n">
-        <v>62.52993369928863</v>
+        <v>18.97678540507607</v>
       </c>
       <c r="D386" t="n">
-        <v>0.5299336992886268</v>
+        <v>1.023214594923932</v>
       </c>
     </row>
     <row r="387">
@@ -5778,13 +5778,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C387" t="n">
-        <v>62.95201746826854</v>
+        <v>56.85826406398029</v>
       </c>
       <c r="D387" t="n">
-        <v>12.04798253173146</v>
+        <v>26.85826406398029</v>
       </c>
     </row>
     <row r="388">
@@ -5792,13 +5792,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C388" t="n">
-        <v>44.48004174176119</v>
+        <v>14.53035944557397</v>
       </c>
       <c r="D388" t="n">
-        <v>17.51995825823881</v>
+        <v>4.530359445573975</v>
       </c>
     </row>
     <row r="389">
@@ -5806,13 +5806,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C389" t="n">
-        <v>19.26167283387462</v>
+        <v>47.79020528530883</v>
       </c>
       <c r="D389" t="n">
-        <v>0.7383271661253801</v>
+        <v>14.20979471469117</v>
       </c>
     </row>
     <row r="390">
@@ -5820,13 +5820,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C390" t="n">
-        <v>60.1314710385963</v>
+        <v>2.027643073866574</v>
       </c>
       <c r="D390" t="n">
-        <v>10.1314710385963</v>
+        <v>7.972356926133426</v>
       </c>
     </row>
     <row r="391">
@@ -5834,13 +5834,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C391" t="n">
-        <v>18.55332790146537</v>
+        <v>39.33243248393817</v>
       </c>
       <c r="D391" t="n">
-        <v>1.446672098534627</v>
+        <v>9.33243248393817</v>
       </c>
     </row>
     <row r="392">
@@ -5848,13 +5848,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C392" t="n">
-        <v>47.49350740151626</v>
+        <v>46.89605441177795</v>
       </c>
       <c r="D392" t="n">
-        <v>7.493507401516261</v>
+        <v>3.103945588222054</v>
       </c>
     </row>
     <row r="393">
@@ -5862,13 +5862,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C393" t="n">
-        <v>48.08488940376336</v>
+        <v>56.14079376425083</v>
       </c>
       <c r="D393" t="n">
-        <v>1.915110596236644</v>
+        <v>26.14079376425083</v>
       </c>
     </row>
     <row r="394">
@@ -5876,13 +5876,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C394" t="n">
-        <v>56.25755036223451</v>
+        <v>24.94742595705626</v>
       </c>
       <c r="D394" t="n">
-        <v>5.742449637765489</v>
+        <v>4.947425957056261</v>
       </c>
     </row>
     <row r="395">
@@ -5890,13 +5890,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C395" t="n">
-        <v>31.92039669265914</v>
+        <v>8.357174513869332</v>
       </c>
       <c r="D395" t="n">
-        <v>8.079603307340861</v>
+        <v>1.642825486130668</v>
       </c>
     </row>
     <row r="396">
@@ -5904,13 +5904,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C396" t="n">
-        <v>0.4468658516611086</v>
+        <v>79.25855477872771</v>
       </c>
       <c r="D396" t="n">
-        <v>0.4468658516611086</v>
+        <v>4.258554778727714</v>
       </c>
     </row>
     <row r="397">
@@ -5918,13 +5918,13 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C397" t="n">
-        <v>36.4117578635047</v>
+        <v>46.18871278069391</v>
       </c>
       <c r="D397" t="n">
-        <v>6.411757863504697</v>
+        <v>6.188712780693912</v>
       </c>
     </row>
     <row r="398">
@@ -5932,13 +5932,13 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C398" t="n">
-        <v>54.14014505783154</v>
+        <v>0.9313656939245556</v>
       </c>
       <c r="D398" t="n">
-        <v>7.859854942168461</v>
+        <v>0.9313656939245556</v>
       </c>
     </row>
     <row r="399">
@@ -5949,10 +5949,10 @@
         <v>62</v>
       </c>
       <c r="C399" t="n">
-        <v>49.98522621900609</v>
+        <v>43.94401766812948</v>
       </c>
       <c r="D399" t="n">
-        <v>12.01477378099391</v>
+        <v>18.05598233187052</v>
       </c>
     </row>
     <row r="400">
@@ -5960,13 +5960,13 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C400" t="n">
-        <v>26.29932951591266</v>
+        <v>4.579108365811663</v>
       </c>
       <c r="D400" t="n">
-        <v>6.29932951591266</v>
+        <v>5.420891634188337</v>
       </c>
     </row>
     <row r="401">
@@ -5974,13 +5974,13 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C401" t="n">
-        <v>0.5170510065663638</v>
+        <v>31.0429150009866</v>
       </c>
       <c r="D401" t="n">
-        <v>0.5170510065663638</v>
+        <v>1.042915000986596</v>
       </c>
     </row>
     <row r="402">
@@ -5988,13 +5988,13 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C402" t="n">
-        <v>39.35441651303222</v>
+        <v>43.20483117736535</v>
       </c>
       <c r="D402" t="n">
-        <v>19.35441651303222</v>
+        <v>13.20483117736535</v>
       </c>
     </row>
     <row r="403">
@@ -6005,10 +6005,10 @@
         <v>30</v>
       </c>
       <c r="C403" t="n">
-        <v>34.51112636622247</v>
+        <v>47.77187223160098</v>
       </c>
       <c r="D403" t="n">
-        <v>4.51112636622247</v>
+        <v>17.77187223160098</v>
       </c>
     </row>
     <row r="404">
@@ -6019,10 +6019,10 @@
         <v>20</v>
       </c>
       <c r="C404" t="n">
-        <v>28.12011501572697</v>
+        <v>35.11756605001846</v>
       </c>
       <c r="D404" t="n">
-        <v>8.12011501572697</v>
+        <v>15.11756605001846</v>
       </c>
     </row>
     <row r="405">
@@ -6030,13 +6030,13 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C405" t="n">
-        <v>37.3753601571267</v>
+        <v>11.8821738916916</v>
       </c>
       <c r="D405" t="n">
-        <v>17.3753601571267</v>
+        <v>1.882173891691597</v>
       </c>
     </row>
     <row r="406">
@@ -6044,13 +6044,13 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C406" t="n">
-        <v>10.55517157713975</v>
+        <v>51.67599207547875</v>
       </c>
       <c r="D406" t="n">
-        <v>9.444828422860255</v>
+        <v>11.67599207547875</v>
       </c>
     </row>
     <row r="407">
@@ -6058,13 +6058,13 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C407" t="n">
-        <v>55.85918369872724</v>
+        <v>52.11873013464953</v>
       </c>
       <c r="D407" t="n">
-        <v>5.859183698727243</v>
+        <v>22.88126986535047</v>
       </c>
     </row>
     <row r="408">
@@ -6072,13 +6072,13 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C408" t="n">
-        <v>47.26836600184787</v>
+        <v>58.62849576118017</v>
       </c>
       <c r="D408" t="n">
-        <v>2.731633998152134</v>
+        <v>3.371504238819831</v>
       </c>
     </row>
     <row r="409">
@@ -6086,13 +6086,13 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C409" t="n">
-        <v>58.59586258064996</v>
+        <v>15.64253630929114</v>
       </c>
       <c r="D409" t="n">
-        <v>3.404137419350043</v>
+        <v>5.642536309291138</v>
       </c>
     </row>
     <row r="410">
@@ -6100,13 +6100,13 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C410" t="n">
-        <v>36.0159615505085</v>
+        <v>47.44565242439668</v>
       </c>
       <c r="D410" t="n">
-        <v>6.0159615505085</v>
+        <v>14.55434757560332</v>
       </c>
     </row>
     <row r="411">
@@ -6114,13 +6114,13 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>7.5640348911394</v>
+        <v>3.77052550746512</v>
       </c>
       <c r="D411" t="n">
-        <v>12.4359651088606</v>
+        <v>3.77052550746512</v>
       </c>
     </row>
     <row r="412">
@@ -6128,13 +6128,13 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C412" t="n">
-        <v>27.83039750259665</v>
+        <v>53.84726466996565</v>
       </c>
       <c r="D412" t="n">
-        <v>7.830397502596647</v>
+        <v>8.152735330034346</v>
       </c>
     </row>
     <row r="413">
@@ -6142,13 +6142,13 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C413" t="n">
-        <v>12.60608962358639</v>
+        <v>37.55183812284807</v>
       </c>
       <c r="D413" t="n">
-        <v>2.606089623586392</v>
+        <v>24.44816187715193</v>
       </c>
     </row>
     <row r="414">
@@ -6156,13 +6156,13 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C414" t="n">
-        <v>35.67780241736519</v>
+        <v>62.47013684709773</v>
       </c>
       <c r="D414" t="n">
-        <v>5.677802417365193</v>
+        <v>12.52986315290227</v>
       </c>
     </row>
     <row r="415">
@@ -6173,10 +6173,10 @@
         <v>62</v>
       </c>
       <c r="C415" t="n">
-        <v>47.92895187494246</v>
+        <v>26.87472673819853</v>
       </c>
       <c r="D415" t="n">
-        <v>14.07104812505754</v>
+        <v>35.12527326180147</v>
       </c>
     </row>
     <row r="416">
@@ -6184,13 +6184,13 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C416" t="n">
-        <v>53.27818951210277</v>
+        <v>43.38652464157678</v>
       </c>
       <c r="D416" t="n">
-        <v>8.72181048789723</v>
+        <v>13.38652464157678</v>
       </c>
     </row>
     <row r="417">
@@ -6198,13 +6198,13 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C417" t="n">
-        <v>51.25461747237307</v>
+        <v>54.8441573680977</v>
       </c>
       <c r="D417" t="n">
-        <v>23.74538252762693</v>
+        <v>7.155842631902296</v>
       </c>
     </row>
     <row r="418">
@@ -6212,13 +6212,13 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C418" t="n">
-        <v>48.9541952133997</v>
+        <v>45.15167235264013</v>
       </c>
       <c r="D418" t="n">
-        <v>18.9541952133997</v>
+        <v>4.848327647359866</v>
       </c>
     </row>
     <row r="419">
@@ -6226,13 +6226,13 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C419" t="n">
-        <v>34.64395192822646</v>
+        <v>15.9514039689299</v>
       </c>
       <c r="D419" t="n">
-        <v>4.643951928226457</v>
+        <v>5.951403968929895</v>
       </c>
     </row>
     <row r="420">
@@ -6240,13 +6240,13 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C420" t="n">
-        <v>26.35012314196985</v>
+        <v>46.81883571329661</v>
       </c>
       <c r="D420" t="n">
-        <v>6.350123141969849</v>
+        <v>16.81883571329661</v>
       </c>
     </row>
     <row r="421">
@@ -6254,13 +6254,13 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C421" t="n">
-        <v>7.139187232334451</v>
+        <v>37.56867052243563</v>
       </c>
       <c r="D421" t="n">
-        <v>7.139187232334451</v>
+        <v>7.568670522435632</v>
       </c>
     </row>
     <row r="422">
@@ -6268,13 +6268,13 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C422" t="n">
-        <v>20.72366910997854</v>
+        <v>36.58236671537392</v>
       </c>
       <c r="D422" t="n">
-        <v>10.72366910997854</v>
+        <v>25.41763328462608</v>
       </c>
     </row>
     <row r="423">
@@ -6282,13 +6282,13 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C423" t="n">
-        <v>0.03683502787686876</v>
+        <v>68.3788448405973</v>
       </c>
       <c r="D423" t="n">
-        <v>9.963164972123131</v>
+        <v>6.621155159402704</v>
       </c>
     </row>
     <row r="424">
@@ -6296,13 +6296,13 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C424" t="n">
-        <v>66.24558123716457</v>
+        <v>45.49977964574666</v>
       </c>
       <c r="D424" t="n">
-        <v>8.754418762835428</v>
+        <v>16.50022035425334</v>
       </c>
     </row>
     <row r="425">
@@ -6310,13 +6310,13 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>56.35136692231633</v>
+        <v>3.806050159065856</v>
       </c>
       <c r="D425" t="n">
-        <v>5.64863307768367</v>
+        <v>3.806050159065856</v>
       </c>
     </row>
     <row r="426">
@@ -6327,10 +6327,10 @@
         <v>10</v>
       </c>
       <c r="C426" t="n">
-        <v>15.67555222502595</v>
+        <v>15.2711016141856</v>
       </c>
       <c r="D426" t="n">
-        <v>5.675552225025953</v>
+        <v>5.271101614185596</v>
       </c>
     </row>
     <row r="427">
@@ -6338,13 +6338,13 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C427" t="n">
-        <v>65.2220576747153</v>
+        <v>43.37206019206298</v>
       </c>
       <c r="D427" t="n">
-        <v>9.777942325284698</v>
+        <v>6.627939807937018</v>
       </c>
     </row>
     <row r="428">
@@ -6352,13 +6352,13 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C428" t="n">
-        <v>58.51586917371633</v>
+        <v>15.6385539798658</v>
       </c>
       <c r="D428" t="n">
-        <v>18.51586917371633</v>
+        <v>5.638553979865797</v>
       </c>
     </row>
     <row r="429">
@@ -6366,13 +6366,13 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C429" t="n">
-        <v>38.29067418336251</v>
+        <v>8.98524888808609</v>
       </c>
       <c r="D429" t="n">
-        <v>1.709325816637488</v>
+        <v>1.01475111191391</v>
       </c>
     </row>
     <row r="430">
@@ -6380,13 +6380,13 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C430" t="n">
-        <v>50.20408708801905</v>
+        <v>38.95434595406378</v>
       </c>
       <c r="D430" t="n">
-        <v>0.2040870880190511</v>
+        <v>8.954345954063776</v>
       </c>
     </row>
     <row r="431">
@@ -6394,13 +6394,13 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C431" t="n">
-        <v>42.14490589347591</v>
+        <v>5.161475826052701</v>
       </c>
       <c r="D431" t="n">
-        <v>19.85509410652409</v>
+        <v>4.838524173947299</v>
       </c>
     </row>
     <row r="432">
@@ -6408,13 +6408,13 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C432" t="n">
-        <v>15.57968694351369</v>
+        <v>27.78763336728091</v>
       </c>
       <c r="D432" t="n">
-        <v>5.579686943513686</v>
+        <v>7.787633367280907</v>
       </c>
     </row>
     <row r="433">
@@ -6422,13 +6422,13 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C433" t="n">
-        <v>3.181764608243905</v>
+        <v>29.84427883256355</v>
       </c>
       <c r="D433" t="n">
-        <v>3.181764608243905</v>
+        <v>0.1557211674364538</v>
       </c>
     </row>
     <row r="434">
@@ -6436,13 +6436,13 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C434" t="n">
-        <v>35.95241403203234</v>
+        <v>35.76668601329833</v>
       </c>
       <c r="D434" t="n">
-        <v>4.047585967967656</v>
+        <v>14.23331398670167</v>
       </c>
     </row>
     <row r="435">
@@ -6450,13 +6450,13 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C435" t="n">
-        <v>42.66169410429311</v>
+        <v>45.84529892545693</v>
       </c>
       <c r="D435" t="n">
-        <v>7.338305895706888</v>
+        <v>16.15470107454307</v>
       </c>
     </row>
     <row r="436">
@@ -6464,13 +6464,13 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C436" t="n">
-        <v>15.95784070184696</v>
+        <v>77.55408785813354</v>
       </c>
       <c r="D436" t="n">
-        <v>4.042159298153038</v>
+        <v>2.554087858133542</v>
       </c>
     </row>
     <row r="437">
@@ -6478,13 +6478,13 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>63.58066173159274</v>
+        <v>4.098946560116698</v>
       </c>
       <c r="D437" t="n">
-        <v>23.58066173159274</v>
+        <v>4.098946560116698</v>
       </c>
     </row>
     <row r="438">
@@ -6492,13 +6492,13 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C438" t="n">
-        <v>68.49974548520947</v>
+        <v>39.35996586935936</v>
       </c>
       <c r="D438" t="n">
-        <v>6.500254514790527</v>
+        <v>0.6400341306406432</v>
       </c>
     </row>
     <row r="439">
@@ -6506,13 +6506,13 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C439" t="n">
-        <v>48.52035379476536</v>
+        <v>32.32185981681098</v>
       </c>
       <c r="D439" t="n">
-        <v>8.520353794765363</v>
+        <v>12.32185981681098</v>
       </c>
     </row>
     <row r="440">
@@ -6520,13 +6520,13 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C440" t="n">
-        <v>41.91896689317012</v>
+        <v>29.98773941228251</v>
       </c>
       <c r="D440" t="n">
-        <v>11.91896689317012</v>
+        <v>9.987739412282508</v>
       </c>
     </row>
     <row r="441">
@@ -6534,13 +6534,13 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C441" t="n">
-        <v>54.74903512691881</v>
+        <v>51.56363639297708</v>
       </c>
       <c r="D441" t="n">
-        <v>20.25096487308119</v>
+        <v>11.56363639297708</v>
       </c>
     </row>
     <row r="442">
@@ -6548,13 +6548,13 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C442" t="n">
-        <v>24.15482072389295</v>
+        <v>52.68438116488622</v>
       </c>
       <c r="D442" t="n">
-        <v>15.84517927610705</v>
+        <v>9.315618835113781</v>
       </c>
     </row>
     <row r="443">
@@ -6562,13 +6562,13 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C443" t="n">
-        <v>7.042209092169749</v>
+        <v>55.27802729794722</v>
       </c>
       <c r="D443" t="n">
-        <v>2.957790907830251</v>
+        <v>25.27802729794722</v>
       </c>
     </row>
     <row r="444">
@@ -6576,13 +6576,13 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>1.261171617352758</v>
+        <v>1.410814861805375</v>
       </c>
       <c r="D444" t="n">
-        <v>8.738828382647242</v>
+        <v>1.410814861805375</v>
       </c>
     </row>
     <row r="445">
@@ -6590,13 +6590,13 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C445" t="n">
-        <v>81.7484785230254</v>
+        <v>54.76700959909804</v>
       </c>
       <c r="D445" t="n">
-        <v>6.748478523025398</v>
+        <v>7.232990400901961</v>
       </c>
     </row>
     <row r="446">
@@ -6604,13 +6604,13 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C446" t="n">
-        <v>84.00779315213043</v>
+        <v>29.73612896762403</v>
       </c>
       <c r="D446" t="n">
-        <v>9.007793152130432</v>
+        <v>9.736128967624033</v>
       </c>
     </row>
     <row r="447">
@@ -6618,13 +6618,13 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C447" t="n">
-        <v>62.65810730178642</v>
+        <v>32.87324454863736</v>
       </c>
       <c r="D447" t="n">
-        <v>12.34189269821358</v>
+        <v>17.12675545136264</v>
       </c>
     </row>
     <row r="448">
@@ -6632,13 +6632,13 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C448" t="n">
-        <v>29.48115443915857</v>
+        <v>25.08266432697101</v>
       </c>
       <c r="D448" t="n">
-        <v>10.51884556084143</v>
+        <v>5.082664326971006</v>
       </c>
     </row>
     <row r="449">
@@ -6646,13 +6646,13 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C449" t="n">
-        <v>12.73157232388436</v>
+        <v>46.13035673963105</v>
       </c>
       <c r="D449" t="n">
-        <v>2.731572323884357</v>
+        <v>6.130356739631054</v>
       </c>
     </row>
     <row r="450">
@@ -6660,13 +6660,13 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C450" t="n">
-        <v>-7.299663230919172</v>
+        <v>40.73951489820627</v>
       </c>
       <c r="D450" t="n">
-        <v>17.29966323091917</v>
+        <v>10.73951489820627</v>
       </c>
     </row>
     <row r="451">
@@ -6674,13 +6674,13 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C451" t="n">
-        <v>18.73479276204459</v>
+        <v>43.81707212978989</v>
       </c>
       <c r="D451" t="n">
-        <v>8.734792762044592</v>
+        <v>13.81707212978989</v>
       </c>
     </row>
     <row r="452">
@@ -6688,13 +6688,13 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C452" t="n">
-        <v>25.19560267468788</v>
+        <v>45.85291586728766</v>
       </c>
       <c r="D452" t="n">
-        <v>5.195602674687883</v>
+        <v>16.14708413271234</v>
       </c>
     </row>
     <row r="453">
@@ -6702,13 +6702,13 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C453" t="n">
-        <v>0.9708904984166633</v>
+        <v>15.85448365744954</v>
       </c>
       <c r="D453" t="n">
-        <v>0.9708904984166633</v>
+        <v>5.854483657449542</v>
       </c>
     </row>
     <row r="454">
@@ -6716,13 +6716,13 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C454" t="n">
-        <v>29.94677578874513</v>
+        <v>75.07042363498351</v>
       </c>
       <c r="D454" t="n">
-        <v>9.946775788745132</v>
+        <v>0.07042363498351278</v>
       </c>
     </row>
     <row r="455">
@@ -6730,13 +6730,13 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C455" t="n">
-        <v>32.19865486265172</v>
+        <v>51.09298922399423</v>
       </c>
       <c r="D455" t="n">
-        <v>17.80134513734828</v>
+        <v>10.90701077600577</v>
       </c>
     </row>
     <row r="456">
@@ -6744,13 +6744,13 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C456" t="n">
-        <v>84.92715415983611</v>
+        <v>39.93226222631332</v>
       </c>
       <c r="D456" t="n">
-        <v>9.927154159836107</v>
+        <v>0.06773777368668021</v>
       </c>
     </row>
     <row r="457">
@@ -6758,13 +6758,13 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C457" t="n">
-        <v>34.50168798787339</v>
+        <v>46.53917274300497</v>
       </c>
       <c r="D457" t="n">
-        <v>4.501687987873389</v>
+        <v>6.539172743004968</v>
       </c>
     </row>
     <row r="458">
@@ -6772,13 +6772,13 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C458" t="n">
-        <v>64.2758493060249</v>
+        <v>40.11353636399008</v>
       </c>
       <c r="D458" t="n">
-        <v>10.7241506939751</v>
+        <v>21.88646363600992</v>
       </c>
     </row>
     <row r="459">
@@ -6786,13 +6786,13 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C459" t="n">
-        <v>55.94829047979124</v>
+        <v>49.50069550870887</v>
       </c>
       <c r="D459" t="n">
-        <v>5.94829047979124</v>
+        <v>12.49930449129113</v>
       </c>
     </row>
     <row r="460">
@@ -6803,10 +6803,10 @@
         <v>50</v>
       </c>
       <c r="C460" t="n">
-        <v>48.30619355446076</v>
+        <v>48.58468350332721</v>
       </c>
       <c r="D460" t="n">
-        <v>1.693806445539238</v>
+        <v>1.415316496672787</v>
       </c>
     </row>
     <row r="461">
@@ -6814,13 +6814,13 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C461" t="n">
-        <v>17.9913740312896</v>
+        <v>41.46305629733023</v>
       </c>
       <c r="D461" t="n">
-        <v>2.008625968710405</v>
+        <v>20.53694370266977</v>
       </c>
     </row>
     <row r="462">
@@ -6828,13 +6828,13 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C462" t="n">
-        <v>57.81371710019584</v>
+        <v>45.56034736917735</v>
       </c>
       <c r="D462" t="n">
-        <v>4.186282899804155</v>
+        <v>4.43965263082265</v>
       </c>
     </row>
     <row r="463">
@@ -6842,13 +6842,13 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C463" t="n">
-        <v>57.62028031931482</v>
+        <v>26.61237723056026</v>
       </c>
       <c r="D463" t="n">
-        <v>7.620280319314823</v>
+        <v>3.387622769439737</v>
       </c>
     </row>
     <row r="464">
@@ -6856,13 +6856,13 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C464" t="n">
-        <v>27.04256050149624</v>
+        <v>69.36910514083372</v>
       </c>
       <c r="D464" t="n">
-        <v>12.95743949850376</v>
+        <v>5.630894859166276</v>
       </c>
     </row>
     <row r="465">
@@ -6870,13 +6870,13 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C465" t="n">
-        <v>3.495165029416036</v>
+        <v>37.50473395122896</v>
       </c>
       <c r="D465" t="n">
-        <v>6.504834970583964</v>
+        <v>24.49526604877104</v>
       </c>
     </row>
     <row r="466">
@@ -6884,13 +6884,307 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
+        <v>75</v>
+      </c>
+      <c r="C466" t="n">
+        <v>63.8991478532208</v>
+      </c>
+      <c r="D466" t="n">
+        <v>11.1008521467792</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
         <v>20</v>
       </c>
-      <c r="C466" t="n">
-        <v>29.05892910687883</v>
-      </c>
-      <c r="D466" t="n">
-        <v>9.058929106878828</v>
+      <c r="C467" t="n">
+        <v>28.06199405467438</v>
+      </c>
+      <c r="D467" t="n">
+        <v>8.061994054674379</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>62</v>
+      </c>
+      <c r="C468" t="n">
+        <v>43.08195810187539</v>
+      </c>
+      <c r="D468" t="n">
+        <v>18.91804189812461</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>0</v>
+      </c>
+      <c r="C469" t="n">
+        <v>0.877673798037979</v>
+      </c>
+      <c r="D469" t="n">
+        <v>0.877673798037979</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>75</v>
+      </c>
+      <c r="C470" t="n">
+        <v>78.57239039179197</v>
+      </c>
+      <c r="D470" t="n">
+        <v>3.57239039179197</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>62</v>
+      </c>
+      <c r="C471" t="n">
+        <v>63.06949729807317</v>
+      </c>
+      <c r="D471" t="n">
+        <v>1.069497298073166</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>50</v>
+      </c>
+      <c r="C472" t="n">
+        <v>55.51899309674673</v>
+      </c>
+      <c r="D472" t="n">
+        <v>5.518993096746726</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>62</v>
+      </c>
+      <c r="C473" t="n">
+        <v>53.83769907474615</v>
+      </c>
+      <c r="D473" t="n">
+        <v>8.162300925253852</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>20</v>
+      </c>
+      <c r="C474" t="n">
+        <v>18.37766503488021</v>
+      </c>
+      <c r="D474" t="n">
+        <v>1.622334965119787</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>30</v>
+      </c>
+      <c r="C475" t="n">
+        <v>25.33599111035461</v>
+      </c>
+      <c r="D475" t="n">
+        <v>4.664008889645388</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>30</v>
+      </c>
+      <c r="C476" t="n">
+        <v>35.2277182463524</v>
+      </c>
+      <c r="D476" t="n">
+        <v>5.227718246352403</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>10</v>
+      </c>
+      <c r="C477" t="n">
+        <v>15.57933711016061</v>
+      </c>
+      <c r="D477" t="n">
+        <v>5.579337110160612</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>30</v>
+      </c>
+      <c r="C478" t="n">
+        <v>39.25297244087424</v>
+      </c>
+      <c r="D478" t="n">
+        <v>9.252972440874238</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>30</v>
+      </c>
+      <c r="C479" t="n">
+        <v>42.69262361795521</v>
+      </c>
+      <c r="D479" t="n">
+        <v>12.69262361795521</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>20</v>
+      </c>
+      <c r="C480" t="n">
+        <v>19.96978412482963</v>
+      </c>
+      <c r="D480" t="n">
+        <v>0.03021587517037361</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>20</v>
+      </c>
+      <c r="C481" t="n">
+        <v>29.86938526943326</v>
+      </c>
+      <c r="D481" t="n">
+        <v>9.869385269433263</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>40</v>
+      </c>
+      <c r="C482" t="n">
+        <v>68.53747067997307</v>
+      </c>
+      <c r="D482" t="n">
+        <v>28.53747067997307</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>62</v>
+      </c>
+      <c r="C483" t="n">
+        <v>41.01357858174693</v>
+      </c>
+      <c r="D483" t="n">
+        <v>20.98642141825307</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>20</v>
+      </c>
+      <c r="C484" t="n">
+        <v>32.95418348159969</v>
+      </c>
+      <c r="D484" t="n">
+        <v>12.95418348159969</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>50</v>
+      </c>
+      <c r="C485" t="n">
+        <v>39.65761739990875</v>
+      </c>
+      <c r="D485" t="n">
+        <v>10.34238260009125</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>62</v>
+      </c>
+      <c r="C486" t="n">
+        <v>33.59917638007445</v>
+      </c>
+      <c r="D486" t="n">
+        <v>28.40082361992555</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>62</v>
+      </c>
+      <c r="C487" t="n">
+        <v>43.36178009605055</v>
+      </c>
+      <c r="D487" t="n">
+        <v>18.63821990394945</v>
       </c>
     </row>
   </sheetData>
